--- a/Auto Finan/420财务050823.xlsx
+++ b/Auto Finan/420财务050823.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0EE5B7-8C81-4FB6-A081-F692BFFD17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210B4CB-FE1B-4046-88E6-9F1F7BD3F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5270" yWindow="4530" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0-Proj信息" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1468">
   <si>
     <t>教研室内部项目序号</t>
   </si>
@@ -4400,7 +4400,19 @@
     <t>教研室内部报销编号</t>
   </si>
   <si>
-    <t>处理进度</t>
+    <t>涉及金额</t>
+  </si>
+  <si>
+    <t>预约号</t>
+  </si>
+  <si>
+    <t>预约单状态</t>
+  </si>
+  <si>
+    <t>PDF链接</t>
+  </si>
+  <si>
+    <t>预约单内容正确性比对</t>
   </si>
   <si>
     <t>登录界面工号</t>
@@ -4490,6 +4502,15 @@
     <t>返回按钮</t>
   </si>
   <si>
+    <t>?PDF路径</t>
+  </si>
+  <si>
+    <t>?预约号</t>
+  </si>
+  <si>
+    <t>?涉及总金额</t>
+  </si>
+  <si>
     <t>Kp5070016</t>
   </si>
   <si>
@@ -4520,10 +4541,13 @@
     <t>$预约</t>
   </si>
   <si>
-    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828423-3600.00-20250903_113549.pdf</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828513-3600.00-20250903_121148.pdf</t>
+  </si>
+  <si>
+    <t>6828513</t>
+  </si>
+  <si>
+    <t>3600.00</t>
   </si>
   <si>
     <t>#M专用材料费</t>
@@ -4532,30 +4556,16 @@
     <t>*2231</t>
   </si>
   <si>
-    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828434-560.00-20250903_113823.pdf</t>
-  </si>
-  <si>
-    <t>?涉及金额</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828517-560.00-20250903_121406.pdf</t>
+  </si>
+  <si>
+    <t>6828517</t>
+  </si>
+  <si>
+    <t>560.00</t>
   </si>
   <si>
     <t>?预约单状态</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>?预约单文件链接</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>?预约单内容正确性比对</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>?PDF路径</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>?预约号</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -4810,7 +4820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5026,6 +5036,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5324,8 +5337,8 @@
     <col min="12" max="12" width="35.33203125" style="47" customWidth="1"/>
     <col min="13" max="13" width="14.25" style="47" customWidth="1"/>
     <col min="14" max="14" width="27" style="47" customWidth="1"/>
-    <col min="15" max="16" width="8.75" style="47" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="47"/>
+    <col min="15" max="17" width="8.75" style="47" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="46" customFormat="1" ht="32.5" customHeight="1">
@@ -16703,385 +16716,398 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="12.08203125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="18" width="18.25" customWidth="1"/>
-    <col min="19" max="19" width="11.08203125" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" customWidth="1"/>
-    <col min="33" max="33" width="13.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.5" customWidth="1"/>
-    <col min="39" max="40" width="9.33203125" customWidth="1"/>
-    <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="42" max="42" width="14.33203125" customWidth="1"/>
-    <col min="43" max="43" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="11.08203125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="22" max="22" width="13.25" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" customWidth="1"/>
+    <col min="36" max="36" width="11.5" customWidth="1"/>
+    <col min="38" max="39" width="9.33203125" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="42">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="42">
       <c r="A1" s="2" t="s">
         <v>1411</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1457</v>
+        <v>1412</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1462</v>
+        <v>1413</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1458</v>
+        <v>1414</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1459</v>
+        <v>1415</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>357</v>
+        <v>1417</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>1419</v>
+        <v>1423</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1420</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>1421</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>1422</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>1425</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>1426</v>
-      </c>
       <c r="Z1" s="5" t="s">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>1435</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>1437</v>
+        <v>1440</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>1442</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>1439</v>
+        <v>1420</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>1416</v>
+        <v>1444</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+        <v>1446</v>
+      </c>
+      <c r="AQ1" s="79" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AR1" s="79" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AS1" s="79" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
       <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
         <v>5070016</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>1449</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="L2" s="3">
+        <v>1450</v>
+      </c>
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="L2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M2" s="3">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="N2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="P2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Q2" s="3">
         <v>5</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T2" s="78" t="s">
+      <c r="R2" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S2" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="U2" s="78">
+      <c r="T2" s="78">
         <v>2</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>1445</v>
-      </c>
+      <c r="U2" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Z2" s="3">
+      <c r="X2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Y2" s="3">
         <v>10</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="AB2" s="3">
+      <c r="Z2" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AA2" s="3">
         <v>3600</v>
       </c>
+      <c r="AB2" s="3" t="s">
+        <v>1450</v>
+      </c>
       <c r="AC2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AE2" s="3">
+        <v>1454</v>
+      </c>
+      <c r="AD2" s="3">
         <v>5070016</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="AG2" s="3">
+      <c r="AE2" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AF2" s="3">
         <v>3600</v>
       </c>
+      <c r="AG2" s="3" t="s">
+        <v>1450</v>
+      </c>
       <c r="AH2" s="3" t="s">
-        <v>1443</v>
+        <v>1454</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>1449</v>
+        <v>1450</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>1457</v>
       </c>
       <c r="AL2" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>5</v>
-      </c>
       <c r="AO2" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>1443</v>
+        <v>1450</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1459</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>1460</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
         <v>6</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="N3" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="P3" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Q3" s="3">
         <v>5</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="T3" s="78" t="s">
+      <c r="R3" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="S3" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="U3" s="78">
+      <c r="T3" s="78">
         <v>5</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>1445</v>
-      </c>
+      <c r="U3" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Z3" s="3">
+      <c r="X3" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="Y3" s="3">
         <v>10</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>560</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AD3" s="78">
+        <v>5110016</v>
+      </c>
+      <c r="AE3" s="78" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AF3" s="3">
         <v>560</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AE3" s="78">
-        <v>5110016</v>
-      </c>
-      <c r="AF3" s="78" t="s">
-        <v>1455</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>560</v>
+      <c r="AG3" s="3" t="s">
+        <v>1450</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>1443</v>
+        <v>1454</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>1449</v>
+        <v>1450</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1457</v>
       </c>
       <c r="AL3" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="AM3" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>5</v>
-      </c>
       <c r="AO3" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>1443</v>
+        <v>1450</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>1464</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1456</v>
+        <v>1465</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>1466</v>
       </c>
     </row>
   </sheetData>

--- a/Auto Finan/420财务050823.xlsx
+++ b/Auto Finan/420财务050823.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FH\source\repos\Auto Finan\Auto Finan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210B4CB-FE1B-4046-88E6-9F1F7BD3F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C4581-0EEB-497B-A064-3CF072A959EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="4870" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0-Proj信息" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="2-助研" sheetId="8" r:id="rId8"/>
     <sheet name="2-工资" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1469">
   <si>
     <t>教研室内部项目序号</t>
   </si>
@@ -4257,35 +4257,35 @@
     <t>侯超凡</t>
   </si>
   <si>
-    <t>一、
+    <t xml:space="preserve">一、
 教研室内部报销编号</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 提出时间</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 新事由？</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 历史报销编号</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 报销事由</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 涉及人/单位</t>
   </si>
   <si>
-    <t>二、
+    <t xml:space="preserve">二、
 涉及总金额</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="18"/>
@@ -4298,7 +4298,7 @@
       <t>三、
 报销审查意见</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -4312,11 +4312,11 @@
     </r>
   </si>
   <si>
-    <t>三、
+    <t xml:space="preserve">三、
 具体意见</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="18"/>
@@ -4330,7 +4330,7 @@
 执行反馈
 </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -4343,7 +4343,7 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
         <sz val="18"/>
@@ -4357,7 +4357,7 @@
 执行情况说明
 </t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -4370,30 +4370,30 @@
     </r>
   </si>
   <si>
-    <t>四、内部所需-
+    <t xml:space="preserve">四、内部所需-
 教研室内部项目序号</t>
   </si>
   <si>
-    <t>四、内部所需-
+    <t xml:space="preserve">四、内部所需-
 项目编号</t>
   </si>
   <si>
     <t>四、内部所需-项目名称</t>
   </si>
   <si>
-    <t>四、
+    <t xml:space="preserve">四、
 收/支</t>
   </si>
   <si>
-    <t>四、
+    <t xml:space="preserve">四、
 实际支出科目</t>
   </si>
   <si>
-    <t>四、
+    <t xml:space="preserve">四、
 人/单位</t>
   </si>
   <si>
-    <t>四、
+    <t xml:space="preserve">四、
 金额</t>
   </si>
   <si>
@@ -4409,7 +4409,7 @@
     <t>预约单状态</t>
   </si>
   <si>
-    <t>PDF链接</t>
+    <t>PDF路径</t>
   </si>
   <si>
     <t>预约单内容正确性比对</t>
@@ -4508,7 +4508,22 @@
     <t>?预约号</t>
   </si>
   <si>
-    <t>?涉及总金额</t>
+    <t>?涉及金额</t>
+  </si>
+  <si>
+    <t>?预约单状态</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>6828803</t>
+  </si>
+  <si>
+    <t>已预约</t>
+  </si>
+  <si>
+    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828803-3600.00-20250903_144312.pdf</t>
   </si>
   <si>
     <t>Kp5070016</t>
@@ -4541,39 +4556,27 @@
     <t>$预约</t>
   </si>
   <si>
-    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828513-3600.00-20250903_121148.pdf</t>
-  </si>
-  <si>
-    <t>6828513</t>
-  </si>
-  <si>
-    <t>3600.00</t>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>6828814</t>
+  </si>
+  <si>
+    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828814-560.00-20250903_144518.pdf</t>
   </si>
   <si>
     <t>#M专用材料费</t>
   </si>
   <si>
     <t>*2231</t>
-  </si>
-  <si>
-    <t>C:\Users\FH\source\repos\Auto Finan\prints\6828517-560.00-20250903_121406.pdf</t>
-  </si>
-  <si>
-    <t>6828517</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>?预约单状态</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4694,19 +4697,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4818,50 +4808,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4870,57 +4860,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4932,73 +4922,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -5011,32 +5001,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5323,25 +5313,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="47" customWidth="1"/>
-    <col min="7" max="7" width="16" style="47" customWidth="1"/>
-    <col min="8" max="8" width="16.58203125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="47" customWidth="1"/>
-    <col min="11" max="11" width="27.08203125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="14.25" style="47" customWidth="1"/>
-    <col min="14" max="14" width="27" style="47" customWidth="1"/>
-    <col min="15" max="17" width="8.75" style="47" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="47"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1" style="47"/>
+    <col min="2" max="2" width="29.25" customWidth="1" style="47"/>
+    <col min="3" max="3" width="42.5" customWidth="1" style="47"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1" style="47"/>
+    <col min="5" max="5" width="16.25" customWidth="1" style="47"/>
+    <col min="6" max="6" width="16.5" customWidth="1" style="47"/>
+    <col min="7" max="7" width="16" customWidth="1" style="47"/>
+    <col min="8" max="8" width="16.58203125" customWidth="1" style="47"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1" style="47"/>
+    <col min="10" max="10" width="20.75" customWidth="1" style="47"/>
+    <col min="11" max="11" width="27.08203125" customWidth="1" style="47"/>
+    <col min="12" max="12" width="35.33203125" customWidth="1" style="47"/>
+    <col min="13" max="13" width="14.25" customWidth="1" style="47"/>
+    <col min="14" max="14" width="27" customWidth="1" style="47"/>
+    <col min="15" max="19" width="8.75" customWidth="1" style="47"/>
+    <col min="20" max="16384" width="8.75" customWidth="1" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="46" customFormat="1" ht="32.5" customHeight="1">
+    <row r="1" ht="32.5" customHeight="1" s="46" customFormat="1">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5">
+    <row r="2" ht="15.5">
       <c r="A2" s="50">
         <v>2025001</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31">
+    <row r="3" ht="31">
       <c r="A3" s="50">
         <v>2025002</v>
       </c>
@@ -5455,7 +5445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.5">
+    <row r="4" ht="15.5">
       <c r="A4" s="54">
         <v>2025003</v>
       </c>
@@ -5490,7 +5480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5">
+    <row r="5" ht="28.5">
       <c r="A5" s="54">
         <v>2025004</v>
       </c>
@@ -5525,7 +5515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.5">
+    <row r="6" ht="15.5">
       <c r="A6" s="54">
         <v>2025005</v>
       </c>
@@ -5560,7 +5550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.5">
+    <row r="7" ht="28.5">
       <c r="A7" s="54">
         <v>2025006</v>
       </c>
@@ -5595,7 +5585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5">
+    <row r="8" ht="28.5">
       <c r="A8" s="54">
         <v>2025007</v>
       </c>
@@ -5630,7 +5620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5">
+    <row r="9" ht="15.5">
       <c r="A9" s="54">
         <v>2025008</v>
       </c>
@@ -5665,7 +5655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.5">
+    <row r="10" ht="15.5">
       <c r="A10" s="54">
         <v>2025009</v>
       </c>
@@ -5700,7 +5690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5">
+    <row r="11" ht="15.5">
       <c r="A11" s="54">
         <v>2025010</v>
       </c>
@@ -5735,7 +5725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.5">
+    <row r="12" ht="15.5">
       <c r="A12" s="54">
         <v>2025011</v>
       </c>
@@ -5770,7 +5760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28.5">
+    <row r="13" ht="28.5">
       <c r="A13" s="54">
         <v>2025012</v>
       </c>
@@ -5805,7 +5795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.5">
+    <row r="14" ht="28.5">
       <c r="A14" s="54">
         <v>2025013</v>
       </c>
@@ -5840,7 +5830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.5">
+    <row r="15" ht="15.5">
       <c r="A15" s="54">
         <v>2025014</v>
       </c>
@@ -5875,7 +5865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.5">
+    <row r="16" ht="15.5">
       <c r="A16" s="54">
         <v>2025015</v>
       </c>
@@ -5910,7 +5900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.5">
+    <row r="17" ht="15.5">
       <c r="A17" s="54">
         <v>2025016</v>
       </c>
@@ -5945,7 +5935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.5">
+    <row r="18" ht="15.5">
       <c r="A18" s="54">
         <v>2025017</v>
       </c>
@@ -5980,7 +5970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.5">
+    <row r="19" ht="15.5">
       <c r="A19" s="54">
         <v>2025018</v>
       </c>
@@ -6015,7 +6005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5">
+    <row r="20" ht="15.5">
       <c r="A20" s="54">
         <v>2025019</v>
       </c>
@@ -6050,7 +6040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.5">
+    <row r="21" ht="15.5">
       <c r="A21" s="54">
         <v>2025020</v>
       </c>
@@ -6085,7 +6075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.5">
+    <row r="22" ht="15.5">
       <c r="A22" s="54">
         <v>2025021</v>
       </c>
@@ -6120,7 +6110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.5">
+    <row r="23" ht="15.5">
       <c r="A23" s="54">
         <v>2025022</v>
       </c>
@@ -6155,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.5">
+    <row r="24" ht="15.5">
       <c r="A24" s="54">
         <v>2025023</v>
       </c>
@@ -6190,7 +6180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.5">
+    <row r="25" ht="28.5">
       <c r="A25" s="54">
         <v>2025024</v>
       </c>
@@ -6225,7 +6215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.5">
+    <row r="26" ht="15.5">
       <c r="A26" s="54">
         <v>2025025</v>
       </c>
@@ -6260,7 +6250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.5">
+    <row r="27" ht="15.5">
       <c r="A27" s="54">
         <v>2025026</v>
       </c>
@@ -6295,7 +6285,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.5">
+    <row r="28" ht="15.5">
       <c r="A28" s="54">
         <v>2025027</v>
       </c>
@@ -6330,7 +6320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.5">
+    <row r="29" ht="15.5">
       <c r="A29" s="54">
         <v>2025028</v>
       </c>
@@ -6365,7 +6355,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.5">
+    <row r="30" ht="15.5">
       <c r="A30" s="54">
         <v>2025029</v>
       </c>
@@ -6400,7 +6390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.5">
+    <row r="31" ht="15.5">
       <c r="A31" s="54">
         <v>2025030</v>
       </c>
@@ -6435,7 +6425,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.5">
+    <row r="32" ht="15.5">
       <c r="A32" s="54">
         <v>2025031</v>
       </c>
@@ -6470,7 +6460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.5">
+    <row r="33" ht="15.5">
       <c r="A33" s="54">
         <v>2025032</v>
       </c>
@@ -6505,7 +6495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.5">
+    <row r="34" ht="15.5">
       <c r="A34" s="54">
         <v>2025033</v>
       </c>
@@ -6540,7 +6530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.5">
+    <row r="35" ht="15.5">
       <c r="A35" s="54">
         <v>2025034</v>
       </c>
@@ -6575,7 +6565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.5">
+    <row r="36" ht="15.5">
       <c r="A36" s="54">
         <v>2025035</v>
       </c>
@@ -6610,7 +6600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.5">
+    <row r="37" ht="15.5">
       <c r="A37" s="54">
         <v>2025036</v>
       </c>
@@ -6645,7 +6635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.5">
+    <row r="38" ht="15.5">
       <c r="A38" s="54">
         <v>2025037</v>
       </c>
@@ -6680,7 +6670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.5">
+    <row r="39" ht="15.5">
       <c r="A39" s="54">
         <v>2025038</v>
       </c>
@@ -6715,7 +6705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.5">
+    <row r="40" ht="15.5">
       <c r="A40" s="54">
         <v>2025039</v>
       </c>
@@ -6750,7 +6740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.5">
+    <row r="41" ht="15.5">
       <c r="A41" s="54">
         <v>2025040</v>
       </c>
@@ -6785,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.5">
+    <row r="42" ht="28.5">
       <c r="A42" s="54">
         <v>2025041</v>
       </c>
@@ -6820,7 +6810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.5">
+    <row r="43" ht="15.5">
       <c r="A43" s="54">
         <v>2025042</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.5">
+    <row r="44" ht="15.5">
       <c r="A44" s="54">
         <v>2025043</v>
       </c>
@@ -6890,7 +6880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="51" customHeight="1">
+    <row r="45" ht="51" customHeight="1">
       <c r="A45" s="54">
         <v>2025044</v>
       </c>
@@ -6925,7 +6915,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.5">
+    <row r="46" ht="28.5">
       <c r="A46" s="54">
         <v>2025045</v>
       </c>
@@ -6960,7 +6950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.5">
+    <row r="47" ht="15.5">
       <c r="A47" s="54">
         <v>2025046</v>
       </c>
@@ -6995,7 +6985,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.5">
+    <row r="48" ht="15.5">
       <c r="A48" s="54">
         <v>2025047</v>
       </c>
@@ -7030,7 +7020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.5">
+    <row r="49" ht="15.5">
       <c r="A49" s="54">
         <v>2025048</v>
       </c>
@@ -7065,7 +7055,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.5">
+    <row r="50" ht="15.5">
       <c r="A50" s="54">
         <v>2025049</v>
       </c>
@@ -7100,7 +7090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.5">
+    <row r="51" ht="15.5">
       <c r="A51" s="54">
         <v>2025050</v>
       </c>
@@ -7135,7 +7125,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="28.5">
+    <row r="52" ht="28.5">
       <c r="A52" s="54">
         <v>2025051</v>
       </c>
@@ -7170,7 +7160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.5">
+    <row r="53" ht="15.5">
       <c r="A53" s="54">
         <v>2025052</v>
       </c>
@@ -7205,7 +7195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.5">
+    <row r="54" ht="28.5">
       <c r="A54" s="54">
         <v>2025053</v>
       </c>
@@ -7240,7 +7230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.5">
+    <row r="55" ht="28.5">
       <c r="A55" s="54">
         <v>2025054</v>
       </c>
@@ -7275,7 +7265,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="28.5">
+    <row r="56" ht="28.5">
       <c r="A56" s="54">
         <v>2025055</v>
       </c>
@@ -7310,7 +7300,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.5">
+    <row r="57" ht="15.5">
       <c r="A57" s="54">
         <v>2025056</v>
       </c>
@@ -7337,7 +7327,7 @@
       <c r="J57" s="52"/>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:11" ht="15.5">
+    <row r="58" ht="15.5">
       <c r="A58" s="54">
         <v>2025057</v>
       </c>
@@ -7364,7 +7354,7 @@
       <c r="J58" s="52"/>
       <c r="K58" s="52"/>
     </row>
-    <row r="59" spans="1:11" ht="15.5">
+    <row r="59" ht="15.5">
       <c r="A59" s="54">
         <v>2025058</v>
       </c>
@@ -7391,7 +7381,7 @@
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
     </row>
-    <row r="60" spans="1:11" ht="15.5">
+    <row r="60" ht="15.5">
       <c r="A60" s="54">
         <v>2025059</v>
       </c>
@@ -7418,7 +7408,7 @@
       <c r="J60" s="52"/>
       <c r="K60" s="52"/>
     </row>
-    <row r="61" spans="1:11" ht="15.5">
+    <row r="61" ht="15.5">
       <c r="A61" s="54">
         <v>2025060</v>
       </c>
@@ -7445,7 +7435,7 @@
       <c r="J61" s="52"/>
       <c r="K61" s="52"/>
     </row>
-    <row r="62" spans="1:11" ht="15.5">
+    <row r="62" ht="15.5">
       <c r="A62" s="54">
         <v>2025061</v>
       </c>
@@ -7472,7 +7462,7 @@
       <c r="J62" s="52"/>
       <c r="K62" s="52"/>
     </row>
-    <row r="63" spans="1:11" ht="28.5">
+    <row r="63" ht="28.5">
       <c r="A63" s="54">
         <v>2025062</v>
       </c>
@@ -7507,7 +7497,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.5">
+    <row r="64" ht="15.5">
       <c r="A64" s="54">
         <v>2025063</v>
       </c>
@@ -7538,7 +7528,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.5">
+    <row r="65" ht="15.5">
       <c r="A65" s="54">
         <v>2025064</v>
       </c>
@@ -7565,7 +7555,7 @@
       <c r="J65" s="52"/>
       <c r="K65" s="52"/>
     </row>
-    <row r="66" spans="1:11" ht="15.5">
+    <row r="66" ht="15.5">
       <c r="A66" s="54">
         <v>2025065</v>
       </c>
@@ -7596,7 +7586,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="68.5" customHeight="1">
+    <row r="67" ht="68.5" customHeight="1">
       <c r="A67" s="54">
         <v>2025066</v>
       </c>
@@ -7627,7 +7617,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.5">
+    <row r="68" ht="28.5">
       <c r="A68" s="54">
         <v>2025067</v>
       </c>
@@ -7662,7 +7652,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16">
+    <row r="69" ht="16">
       <c r="A69" s="54">
         <v>2025068</v>
       </c>
@@ -7697,7 +7687,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28.5">
+    <row r="70" ht="28.5">
       <c r="A70" s="54">
         <v>2025069</v>
       </c>
@@ -7732,7 +7722,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28.5">
+    <row r="71" ht="28.5">
       <c r="A71" s="54">
         <v>2025070</v>
       </c>
@@ -7767,7 +7757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.5">
+    <row r="72" ht="15.5">
       <c r="A72" s="54">
         <v>2025071</v>
       </c>
@@ -7794,7 +7784,7 @@
       <c r="J72" s="52"/>
       <c r="K72" s="52"/>
     </row>
-    <row r="73" spans="1:11" ht="28.5">
+    <row r="73" ht="28.5">
       <c r="A73" s="54">
         <v>2025072</v>
       </c>
@@ -7829,7 +7819,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="28.5">
+    <row r="74" ht="28.5">
       <c r="A74" s="54">
         <v>2025073</v>
       </c>
@@ -7864,7 +7854,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="28.5">
+    <row r="75" ht="28.5">
       <c r="A75" s="54">
         <v>2025074</v>
       </c>
@@ -7899,7 +7889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="28.5">
+    <row r="76" ht="28.5">
       <c r="A76" s="54">
         <v>2025075</v>
       </c>
@@ -7934,7 +7924,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="28">
+    <row r="77" ht="28">
       <c r="A77" s="54">
         <v>2025076</v>
       </c>
@@ -7969,7 +7959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.5">
+    <row r="78" ht="15.5">
       <c r="A78" s="54">
         <v>2025077</v>
       </c>
@@ -8004,7 +7994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="28.5">
+    <row r="79" ht="28.5">
       <c r="A79" s="54">
         <v>2025078</v>
       </c>
@@ -8039,7 +8029,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="28.5">
+    <row r="80" ht="28.5">
       <c r="A80" s="54">
         <v>2025079</v>
       </c>
@@ -8065,16 +8055,16 @@
         <v>248</v>
       </c>
       <c r="I80" s="65">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="J80" s="65">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="K80" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.5">
+    <row r="81" ht="28.5">
       <c r="A81" s="54">
         <v>2025080</v>
       </c>
@@ -8099,7 +8089,7 @@
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
     </row>
-    <row r="82" spans="1:11" ht="28.5">
+    <row r="82" ht="28.5">
       <c r="A82" s="54">
         <v>2025081</v>
       </c>
@@ -8130,7 +8120,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.5">
+    <row r="83" ht="28.5">
       <c r="A83" s="54">
         <v>2025082</v>
       </c>
@@ -8161,7 +8151,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.5">
+    <row r="84" ht="15.5">
       <c r="A84" s="54">
         <v>2025083</v>
       </c>
@@ -8194,7 +8184,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.5">
+    <row r="85" ht="15.5">
       <c r="A85" s="54">
         <v>2025084</v>
       </c>
@@ -8227,7 +8217,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="42.5">
+    <row r="86" ht="42.5">
       <c r="A86" s="54">
         <v>2025085</v>
       </c>
@@ -8258,7 +8248,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.5">
+    <row r="87" ht="15.5">
       <c r="A87" s="54">
         <v>2025086</v>
       </c>
@@ -8283,7 +8273,7 @@
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
     </row>
-    <row r="88" spans="1:11" ht="28.5">
+    <row r="88" ht="28.5">
       <c r="A88" s="54">
         <v>2025087</v>
       </c>
@@ -8314,7 +8304,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="42.5">
+    <row r="89" ht="42.5">
       <c r="A89" s="54">
         <v>2025088</v>
       </c>
@@ -8349,7 +8339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="39.65" customHeight="1">
+    <row r="90" ht="39.65" customHeight="1">
       <c r="A90" s="54">
         <v>2025089</v>
       </c>
@@ -8371,16 +8361,16 @@
         <v>277</v>
       </c>
       <c r="I90" s="52">
-        <v>26.993476999999999</v>
+        <v>26.993477</v>
       </c>
       <c r="J90" s="52">
-        <v>26.993476999999999</v>
+        <v>26.993477</v>
       </c>
       <c r="K90" s="52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="28.5">
+    <row r="91" ht="28.5">
       <c r="A91" s="54">
         <v>2025090</v>
       </c>
@@ -8417,7 +8407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.5">
+    <row r="92" ht="28.5">
       <c r="A92" s="54">
         <v>2025091</v>
       </c>
@@ -8453,7 +8443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="28.5">
+    <row r="93" ht="28.5">
       <c r="A93" s="54">
         <v>2025092</v>
       </c>
@@ -8489,7 +8479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.5">
+    <row r="94" ht="15.5">
       <c r="A94" s="54">
         <v>2025093</v>
       </c>
@@ -8512,7 +8502,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.5">
+    <row r="95" ht="15.5">
       <c r="A95" s="54">
         <v>2025094</v>
       </c>
@@ -8539,7 +8529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.5">
+    <row r="96" ht="15.5">
       <c r="A96" s="54">
         <v>2025095</v>
       </c>
@@ -8574,7 +8564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="28.5">
+    <row r="97" ht="28.5">
       <c r="A97" s="54">
         <v>2025096</v>
       </c>
@@ -8607,7 +8597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="28.5">
+    <row r="98" ht="28.5">
       <c r="A98" s="54">
         <v>2025097</v>
       </c>
@@ -8642,7 +8632,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="28.5">
+    <row r="99" ht="28.5">
       <c r="A99" s="54">
         <v>2025098</v>
       </c>
@@ -8669,7 +8659,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.5">
+    <row r="100" ht="28.5">
       <c r="A100" s="54">
         <v>2025099</v>
       </c>
@@ -8696,7 +8686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.5">
+    <row r="101" ht="28.5">
       <c r="A101" s="54">
         <v>2025100</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="57.65" customHeight="1">
+    <row r="102" ht="57.65" customHeight="1">
       <c r="A102" s="54">
         <v>2025101</v>
       </c>
@@ -8750,7 +8740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.5">
+    <row r="103" ht="15.5">
       <c r="A103" s="54">
         <v>2025102</v>
       </c>
@@ -8768,16 +8758,16 @@
         <v>311</v>
       </c>
       <c r="I103" s="52">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="J103" s="52">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="K103" s="52" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.5">
+    <row r="104" ht="15.5">
       <c r="A104" s="54">
         <v>2025103</v>
       </c>
@@ -8804,7 +8794,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="28.5">
+    <row r="105" ht="28.5">
       <c r="A105" s="54">
         <v>2025104</v>
       </c>
@@ -8839,7 +8829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="42.5">
+    <row r="106" ht="42.5">
       <c r="A106" s="54">
         <v>2025105</v>
       </c>
@@ -8862,7 +8852,7 @@
       <c r="J106" s="52"/>
       <c r="K106" s="52"/>
     </row>
-    <row r="107" spans="1:11" ht="28.5">
+    <row r="107" ht="28.5">
       <c r="A107" s="54">
         <v>2025106</v>
       </c>
@@ -8897,7 +8887,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="28.5">
+    <row r="108" ht="28.5">
       <c r="A108" s="54">
         <v>2025107</v>
       </c>
@@ -8923,14 +8913,14 @@
         <v>325</v>
       </c>
       <c r="I108" s="52">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="J108" s="52"/>
       <c r="K108" s="52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="28.5">
+    <row r="109" ht="28.5">
       <c r="A109" s="54">
         <v>2025108</v>
       </c>
@@ -8963,7 +8953,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="28.5">
+    <row r="110" ht="28.5">
       <c r="A110" s="54">
         <v>2025109</v>
       </c>
@@ -8998,7 +8988,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.5">
+    <row r="111" ht="15.5">
       <c r="A111" s="54">
         <v>2025110</v>
       </c>
@@ -9031,7 +9021,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.5">
+    <row r="112" ht="15.5">
       <c r="A112" s="54">
         <v>2025111</v>
       </c>
@@ -9066,7 +9056,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="28.5">
+    <row r="113" ht="28.5">
       <c r="A113" s="54">
         <v>2025112</v>
       </c>
@@ -9099,7 +9089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="28.5">
+    <row r="114" ht="28.5">
       <c r="A114" s="54">
         <v>2025113</v>
       </c>
@@ -9134,7 +9124,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="31">
+    <row r="115" ht="31">
       <c r="A115" s="54">
         <v>2025114</v>
       </c>
@@ -9167,7 +9157,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="28.5">
+    <row r="116" ht="28.5">
       <c r="A116" s="54">
         <v>2025115</v>
       </c>
@@ -9202,7 +9192,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.5">
+    <row r="117" ht="15.5">
       <c r="A117" s="54">
         <v>2025116</v>
       </c>
@@ -9229,7 +9219,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.5">
+    <row r="118" ht="15.5">
       <c r="A118" s="54">
         <v>2025117</v>
       </c>
@@ -9264,13 +9254,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.5">
+    <row r="119" ht="15.5">
       <c r="A119" s="62"/>
       <c r="C119" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9286,18 +9277,18 @@
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="32.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1" style="20"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1" style="20"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="24.25" customWidth="1"/>
     <col min="7" max="7" width="44.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="20" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1" style="20"/>
+    <col min="11" max="11" width="21.25" customWidth="1" style="20"/>
+    <col min="12" max="12" width="18.5" customWidth="1" style="20"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5">
+    <row r="1" ht="15.5">
       <c r="A1" s="21" t="s">
         <v>357</v>
       </c>
@@ -9329,7 +9320,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1">
+    <row r="2" s="19" customFormat="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -9355,7 +9346,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1">
+    <row r="3" s="19" customFormat="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -9381,7 +9372,7 @@
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="4" ht="15.5" s="19" customFormat="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -9407,7 +9398,7 @@
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1">
+    <row r="5" s="19" customFormat="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -9433,7 +9424,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" s="19" customFormat="1">
+    <row r="6" s="19" customFormat="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -9459,7 +9450,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" s="19" customFormat="1">
+    <row r="7" s="19" customFormat="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -9485,7 +9476,7 @@
       </c>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" s="19" customFormat="1">
+    <row r="8" s="19" customFormat="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -9511,7 +9502,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" s="19" customFormat="1">
+    <row r="9" s="19" customFormat="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -9537,7 +9528,7 @@
       </c>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" s="19" customFormat="1">
+    <row r="10" s="19" customFormat="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -9563,7 +9554,7 @@
       </c>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" s="19" customFormat="1">
+    <row r="11" s="19" customFormat="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -9589,7 +9580,7 @@
       </c>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" s="19" customFormat="1">
+    <row r="12" s="19" customFormat="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -9615,7 +9606,7 @@
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" s="19" customFormat="1">
+    <row r="13" s="19" customFormat="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -9641,7 +9632,7 @@
       </c>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" s="19" customFormat="1">
+    <row r="14" s="19" customFormat="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -9663,11 +9654,11 @@
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -9680,11 +9671,11 @@
         <v>5110016</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.5">
+    <row r="16" ht="15.5">
       <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>180</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -9696,7 +9687,7 @@
       <c r="F16" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>400</v>
       </c>
       <c r="H16" s="68" t="s">
@@ -9709,11 +9700,11 @@
         <v>15828154009</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17">
       <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>413</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -9726,7 +9717,7 @@
         <v>5090235</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="19" customFormat="1">
+    <row r="18" s="19" customFormat="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -9745,7 +9736,7 @@
       </c>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:12" s="19" customFormat="1">
+    <row r="19" s="19" customFormat="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -9764,7 +9755,7 @@
       </c>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1">
+    <row r="20" s="19" customFormat="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -9792,7 +9783,7 @@
       </c>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" s="19" customFormat="1">
+    <row r="21" s="19" customFormat="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -9819,7 +9810,7 @@
         <v>15828085356</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1">
+    <row r="22" s="19" customFormat="1">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -9843,11 +9834,11 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23">
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>428</v>
       </c>
       <c r="C23" s="20" t="s">
@@ -9859,18 +9850,18 @@
       <c r="F23" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>431</v>
       </c>
       <c r="K23" s="20">
         <v>4230032</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24">
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>432</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -9885,18 +9876,18 @@
       <c r="F24" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K24" s="20">
         <v>4230036</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>435</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -9915,11 +9906,11 @@
         <v>15828139278</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26">
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>438</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -9935,7 +9926,7 @@
         <v>4230437</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="27" ht="15.5" s="19" customFormat="1">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -9961,7 +9952,7 @@
       </c>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="1:12" s="19" customFormat="1">
+    <row r="28" s="19" customFormat="1">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -9987,7 +9978,7 @@
       </c>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1">
+    <row r="29" s="19" customFormat="1">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -10013,7 +10004,7 @@
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:12" s="19" customFormat="1">
+    <row r="30" s="19" customFormat="1">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -10039,7 +10030,7 @@
       </c>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" s="19" customFormat="1">
+    <row r="31" s="19" customFormat="1">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -10065,7 +10056,7 @@
       </c>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1">
+    <row r="32" s="19" customFormat="1">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -10091,7 +10082,7 @@
       </c>
       <c r="L32" s="20"/>
     </row>
-    <row r="33" spans="1:12" s="19" customFormat="1">
+    <row r="33" s="19" customFormat="1">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -10117,7 +10108,7 @@
       </c>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="1:12" s="19" customFormat="1">
+    <row r="34" s="19" customFormat="1">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -10143,7 +10134,7 @@
       </c>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="35" ht="15.5" s="19" customFormat="1">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -10169,7 +10160,7 @@
       </c>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12" s="19" customFormat="1">
+    <row r="36" s="19" customFormat="1">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -10195,7 +10186,7 @@
       </c>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="1:12" s="19" customFormat="1">
+    <row r="37" s="19" customFormat="1">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -10221,7 +10212,7 @@
       </c>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="1:12" s="19" customFormat="1">
+    <row r="38" s="19" customFormat="1">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -10247,7 +10238,7 @@
       </c>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:12" s="19" customFormat="1">
+    <row r="39" s="19" customFormat="1">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -10273,7 +10264,7 @@
       </c>
       <c r="L39" s="20"/>
     </row>
-    <row r="40" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="40" ht="15.5" s="19" customFormat="1">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -10299,7 +10290,7 @@
       </c>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="41" ht="15.5" s="19" customFormat="1">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -10325,7 +10316,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="42" ht="15.5" s="19" customFormat="1">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -10351,7 +10342,7 @@
       </c>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="43" ht="15.5" s="19" customFormat="1">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -10377,7 +10368,7 @@
       </c>
       <c r="L43" s="20"/>
     </row>
-    <row r="44" spans="1:12" s="19" customFormat="1">
+    <row r="44" s="19" customFormat="1">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -10403,7 +10394,7 @@
       </c>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="1:12" s="19" customFormat="1">
+    <row r="45" s="19" customFormat="1">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -10429,7 +10420,7 @@
       </c>
       <c r="L45" s="20"/>
     </row>
-    <row r="46" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="46" ht="15.5" s="19" customFormat="1">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -10455,7 +10446,7 @@
       </c>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1">
+    <row r="47" s="19" customFormat="1">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -10481,7 +10472,7 @@
       </c>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" s="19" customFormat="1">
+    <row r="48" s="19" customFormat="1">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -10507,7 +10498,7 @@
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:15" s="19" customFormat="1">
+    <row r="49" s="19" customFormat="1">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -10534,7 +10525,7 @@
         <v>13880828042</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="19" customFormat="1">
+    <row r="50" s="19" customFormat="1">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -10569,7 +10560,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="19" customFormat="1">
+    <row r="51" s="19" customFormat="1">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -10604,7 +10595,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="19" customFormat="1">
+    <row r="52" s="19" customFormat="1">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -10639,7 +10630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="19" customFormat="1">
+    <row r="53" s="19" customFormat="1">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -10674,7 +10665,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="19" customFormat="1">
+    <row r="54" s="19" customFormat="1">
       <c r="A54" s="19">
         <v>53</v>
       </c>
@@ -10709,7 +10700,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="19" customFormat="1">
+    <row r="55" s="19" customFormat="1">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -10744,7 +10735,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="19" customFormat="1">
+    <row r="56" s="19" customFormat="1">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -10770,7 +10761,7 @@
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
     </row>
-    <row r="57" spans="1:15" s="19" customFormat="1">
+    <row r="57" s="19" customFormat="1">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -10796,7 +10787,7 @@
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
     </row>
-    <row r="58" spans="1:15" s="19" customFormat="1">
+    <row r="58" s="19" customFormat="1">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -10822,7 +10813,7 @@
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
     </row>
-    <row r="59" spans="1:15" s="19" customFormat="1">
+    <row r="59" s="19" customFormat="1">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -10847,7 +10838,7 @@
       </c>
       <c r="L59" s="20"/>
     </row>
-    <row r="60" spans="1:15" s="19" customFormat="1">
+    <row r="60" s="19" customFormat="1">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -10878,7 +10869,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="19" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="61" ht="17.15" customHeight="1" s="19" customFormat="1">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -10913,7 +10904,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="19" customFormat="1" ht="28">
+    <row r="62" ht="28" s="19" customFormat="1">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -10939,7 +10930,7 @@
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
     </row>
-    <row r="63" spans="1:15" s="19" customFormat="1">
+    <row r="63" s="19" customFormat="1">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -10965,7 +10956,7 @@
       <c r="K63" s="26"/>
       <c r="L63" s="20"/>
     </row>
-    <row r="64" spans="1:15" s="19" customFormat="1" ht="15.5">
+    <row r="64" ht="15.5" s="19" customFormat="1">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -10990,7 +10981,7 @@
       </c>
       <c r="L64" s="20"/>
     </row>
-    <row r="65" spans="1:12" s="19" customFormat="1">
+    <row r="65" s="19" customFormat="1">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -11018,7 +11009,7 @@
       </c>
       <c r="L65" s="20"/>
     </row>
-    <row r="66" spans="1:12" s="19" customFormat="1">
+    <row r="66" s="19" customFormat="1">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -11037,7 +11028,7 @@
       </c>
       <c r="L66" s="20"/>
     </row>
-    <row r="67" spans="1:12" s="19" customFormat="1">
+    <row r="67" s="19" customFormat="1">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -11062,7 +11053,7 @@
       </c>
       <c r="L67" s="20"/>
     </row>
-    <row r="68" spans="1:12" s="19" customFormat="1">
+    <row r="68" s="19" customFormat="1">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -11081,7 +11072,7 @@
       </c>
       <c r="L68" s="20"/>
     </row>
-    <row r="69" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="69" ht="15.5" s="19" customFormat="1">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -11100,7 +11091,7 @@
       </c>
       <c r="L69" s="20"/>
     </row>
-    <row r="70" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="70" ht="15.5" s="19" customFormat="1">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -11125,7 +11116,7 @@
       </c>
       <c r="L70" s="20"/>
     </row>
-    <row r="71" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="71" ht="15.5" s="19" customFormat="1">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -11144,7 +11135,7 @@
       </c>
       <c r="L71" s="20"/>
     </row>
-    <row r="72" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="72" ht="15.5" s="19" customFormat="1">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -11169,7 +11160,7 @@
       </c>
       <c r="L72" s="20"/>
     </row>
-    <row r="73" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="73" ht="15.5" s="19" customFormat="1">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -11197,7 +11188,7 @@
       </c>
       <c r="L73" s="20"/>
     </row>
-    <row r="74" spans="1:12" s="19" customFormat="1">
+    <row r="74" s="19" customFormat="1">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -11223,7 +11214,7 @@
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
     </row>
-    <row r="75" spans="1:12" s="19" customFormat="1">
+    <row r="75" s="19" customFormat="1">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -11249,7 +11240,7 @@
       <c r="K75" s="20"/>
       <c r="L75" s="20"/>
     </row>
-    <row r="76" spans="1:12" s="19" customFormat="1">
+    <row r="76" s="19" customFormat="1">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -11275,7 +11266,7 @@
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
     </row>
-    <row r="77" spans="1:12" s="19" customFormat="1">
+    <row r="77" s="19" customFormat="1">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -11301,7 +11292,7 @@
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
     </row>
-    <row r="78" spans="1:12" s="19" customFormat="1">
+    <row r="78" s="19" customFormat="1">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -11327,7 +11318,7 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
     </row>
-    <row r="79" spans="1:12" s="19" customFormat="1">
+    <row r="79" s="19" customFormat="1">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -11342,7 +11333,7 @@
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
     </row>
-    <row r="80" spans="1:12" s="19" customFormat="1">
+    <row r="80" s="19" customFormat="1">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -11370,7 +11361,7 @@
         <v>13550296530</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="19" customFormat="1">
+    <row r="81" s="19" customFormat="1">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -11398,7 +11389,7 @@
         <v>18380557907</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="19" customFormat="1">
+    <row r="82" s="19" customFormat="1">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -11426,7 +11417,7 @@
         <v>18980596322</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="19" customFormat="1">
+    <row r="83" s="19" customFormat="1">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -11454,7 +11445,7 @@
       </c>
       <c r="L83" s="20"/>
     </row>
-    <row r="84" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="84" ht="15.5" s="19" customFormat="1">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -11480,7 +11471,7 @@
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
     </row>
-    <row r="85" spans="1:12" s="19" customFormat="1">
+    <row r="85" s="19" customFormat="1">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -11508,7 +11499,7 @@
         <v>13980664852</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="19" customFormat="1">
+    <row r="86" s="19" customFormat="1">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -11536,7 +11527,7 @@
         <v>13808086286</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="19" customFormat="1">
+    <row r="87" s="19" customFormat="1">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -11564,7 +11555,7 @@
         <v>13608196859</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="19" customFormat="1">
+    <row r="88" s="19" customFormat="1">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -11592,7 +11583,7 @@
         <v>13658013287</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="89" ht="15.5" s="19" customFormat="1">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -11620,7 +11611,7 @@
         <v>13648032216</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="90" ht="15.5" s="19" customFormat="1">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -11648,7 +11639,7 @@
         <v>18108257155</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="91" ht="15.5" s="19" customFormat="1">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -11676,7 +11667,7 @@
         <v>13908237000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="92" ht="15.5" s="19" customFormat="1">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -11704,7 +11695,7 @@
         <v>13801116402</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="19" customFormat="1">
+    <row r="93" s="19" customFormat="1">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -11730,7 +11721,7 @@
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
     </row>
-    <row r="94" spans="1:12" s="19" customFormat="1">
+    <row r="94" s="19" customFormat="1">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -11756,7 +11747,7 @@
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
     </row>
-    <row r="95" spans="1:12" s="19" customFormat="1">
+    <row r="95" s="19" customFormat="1">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -11782,7 +11773,7 @@
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
     </row>
-    <row r="96" spans="1:12" s="19" customFormat="1">
+    <row r="96" s="19" customFormat="1">
       <c r="A96" s="19">
         <v>95</v>
       </c>
@@ -11808,7 +11799,7 @@
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
     </row>
-    <row r="97" spans="1:12" s="19" customFormat="1">
+    <row r="97" s="19" customFormat="1">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -11834,7 +11825,7 @@
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
     </row>
-    <row r="98" spans="1:12" s="19" customFormat="1">
+    <row r="98" s="19" customFormat="1">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -11860,11 +11851,11 @@
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99">
       <c r="A99" s="19">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>714</v>
       </c>
       <c r="C99" s="20" t="s">
@@ -11873,24 +11864,24 @@
       <c r="D99" s="20">
         <v>4230116</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="0" t="s">
         <v>715</v>
       </c>
       <c r="F99" s="67" t="s">
         <v>716</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K99" s="20">
         <v>4230116</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100">
       <c r="A100" s="19">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>717</v>
       </c>
       <c r="C100" s="20" t="s">
@@ -11905,7 +11896,7 @@
       <c r="F100" s="67" t="s">
         <v>719</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K100" s="20">
@@ -11915,11 +11906,11 @@
         <v>18980092808</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101">
       <c r="A101" s="19">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>720</v>
       </c>
       <c r="C101" s="20" t="s">
@@ -11931,26 +11922,26 @@
       <c r="F101" s="67" t="s">
         <v>721</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="0" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.5">
+    <row r="102" ht="15.5">
       <c r="A102" s="19">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="0" t="s">
         <v>723</v>
       </c>
       <c r="C102" s="38" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103">
       <c r="A103" s="19">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="0" t="s">
         <v>725</v>
       </c>
       <c r="C103" s="20" t="s">
@@ -11959,21 +11950,21 @@
       <c r="D103" s="19">
         <v>638391245</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="0" t="s">
         <v>726</v>
       </c>
       <c r="F103" s="19">
         <v>638391245</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="0" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104">
       <c r="A104" s="19">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>728</v>
       </c>
       <c r="C104" s="20" t="s">
@@ -11982,24 +11973,24 @@
       <c r="D104" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="0" t="s">
         <v>729</v>
       </c>
       <c r="F104" s="67" t="s">
         <v>730</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="0" t="s">
         <v>731</v>
       </c>
       <c r="L104" s="20">
         <v>18328325926</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105">
       <c r="A105" s="19">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="0" t="s">
         <v>732</v>
       </c>
       <c r="C105" s="20" t="s">
@@ -12014,15 +12005,15 @@
       <c r="F105" s="67" t="s">
         <v>734</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="0" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106">
       <c r="A106" s="19">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="0" t="s">
         <v>736</v>
       </c>
       <c r="C106" s="20" t="s">
@@ -12037,15 +12028,15 @@
       <c r="F106" s="67" t="s">
         <v>738</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="0" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107">
       <c r="A107" s="19">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="0" t="s">
         <v>739</v>
       </c>
       <c r="C107" s="20" t="s">
@@ -12060,15 +12051,15 @@
       <c r="F107" s="67" t="s">
         <v>741</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="0" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108">
       <c r="A108" s="19">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="0" t="s">
         <v>742</v>
       </c>
       <c r="C108" s="20" t="s">
@@ -12083,15 +12074,15 @@
       <c r="F108" s="67" t="s">
         <v>744</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="0" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109">
       <c r="A109" s="19">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="0" t="s">
         <v>745</v>
       </c>
       <c r="C109" s="20" t="s">
@@ -12106,11 +12097,11 @@
       <c r="F109" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="0" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="19" customFormat="1" ht="15.5">
+    <row r="110" ht="15.5" s="19" customFormat="1">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -12136,11 +12127,11 @@
       </c>
       <c r="L110" s="20"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111">
       <c r="A111" s="19">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="0" t="s">
         <v>751</v>
       </c>
       <c r="C111" s="20" t="s">
@@ -12152,18 +12143,18 @@
       <c r="F111" s="67" t="s">
         <v>752</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="0" t="s">
         <v>753</v>
       </c>
       <c r="H111" s="68" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112">
       <c r="A112" s="19">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="0" t="s">
         <v>755</v>
       </c>
       <c r="C112" s="20" t="s">
@@ -12175,15 +12166,15 @@
       <c r="F112" s="67" t="s">
         <v>756</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="0" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113">
       <c r="A113" s="19">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>758</v>
       </c>
       <c r="C113" s="26" t="s">
@@ -12198,7 +12189,7 @@
       <c r="F113" s="67" t="s">
         <v>761</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="0" t="s">
         <v>762</v>
       </c>
       <c r="K113" s="68" t="s">
@@ -12208,11 +12199,11 @@
         <v>17852935846</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114">
       <c r="A114" s="19">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="0" t="s">
         <v>763</v>
       </c>
       <c r="C114" s="26" t="s">
@@ -12227,18 +12218,18 @@
       <c r="F114" s="67" t="s">
         <v>766</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="0" t="s">
         <v>767</v>
       </c>
       <c r="K114" s="68" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115">
       <c r="A115" s="19">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="0" t="s">
         <v>768</v>
       </c>
       <c r="C115" s="26" t="s">
@@ -12253,7 +12244,7 @@
       <c r="F115" s="67" t="s">
         <v>771</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="0" t="s">
         <v>491</v>
       </c>
       <c r="K115" s="68" t="s">
@@ -12263,11 +12254,11 @@
         <v>18380269853</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116">
       <c r="A116" s="19">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="0" t="s">
         <v>772</v>
       </c>
       <c r="C116" s="20" t="s">
@@ -12282,15 +12273,15 @@
       <c r="F116" s="67" t="s">
         <v>774</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="0" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.5">
+    <row r="117" ht="15.5">
       <c r="A117" s="19">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="0" t="s">
         <v>776</v>
       </c>
       <c r="C117" s="26" t="s">
@@ -12302,18 +12293,18 @@
       <c r="F117" s="67" t="s">
         <v>778</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="0" t="s">
         <v>779</v>
       </c>
       <c r="K117" s="28" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118">
       <c r="A118" s="19">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="0" t="s">
         <v>780</v>
       </c>
       <c r="C118" s="20" t="s">
@@ -12322,32 +12313,32 @@
       <c r="D118" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="0" t="s">
         <v>781</v>
       </c>
       <c r="F118" s="67" t="s">
         <v>782</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="0" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.5">
+    <row r="119" ht="15.5">
       <c r="A119" s="19">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="0" t="s">
         <v>784</v>
       </c>
       <c r="C119" s="38" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120">
       <c r="A120" s="19">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="0" t="s">
         <v>785</v>
       </c>
       <c r="C120" s="20" t="s">
@@ -12356,21 +12347,21 @@
       <c r="D120" s="20" t="s">
         <v>786</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="0" t="s">
         <v>786</v>
       </c>
       <c r="F120" s="67" t="s">
         <v>787</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="0" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121">
       <c r="A121" s="19">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="0" t="s">
         <v>789</v>
       </c>
       <c r="C121" s="20" t="s">
@@ -12385,15 +12376,15 @@
       <c r="F121" s="67" t="s">
         <v>791</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="0" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122">
       <c r="A122" s="19">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="0" t="s">
         <v>793</v>
       </c>
       <c r="C122" s="20" t="s">
@@ -12408,15 +12399,15 @@
       <c r="F122" s="67" t="s">
         <v>795</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="0" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123">
       <c r="A123" s="19">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="0" t="s">
         <v>797</v>
       </c>
       <c r="C123" s="20" t="s">
@@ -12431,15 +12422,15 @@
       <c r="F123" s="67" t="s">
         <v>799</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="0" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124">
       <c r="A124" s="19">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="0" t="s">
         <v>801</v>
       </c>
       <c r="C124" s="20" t="s">
@@ -12454,15 +12445,15 @@
       <c r="F124" s="67" t="s">
         <v>803</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="0" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125">
       <c r="A125" s="19">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="0" t="s">
         <v>805</v>
       </c>
       <c r="C125" s="20" t="s">
@@ -12477,15 +12468,15 @@
       <c r="F125" s="67" t="s">
         <v>807</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="0" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126">
       <c r="A126" s="19">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="0" t="s">
         <v>808</v>
       </c>
       <c r="C126" s="20" t="s">
@@ -12500,18 +12491,18 @@
       <c r="F126" s="67" t="s">
         <v>810</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="0" t="s">
         <v>811</v>
       </c>
       <c r="H126" s="68" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127">
       <c r="A127" s="19">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="0" t="s">
         <v>813</v>
       </c>
       <c r="C127" s="20" t="s">
@@ -12523,18 +12514,18 @@
       <c r="E127" s="67" t="s">
         <v>814</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="0" t="s">
         <v>815</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="0" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128">
       <c r="A128" s="19">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="0" t="s">
         <v>816</v>
       </c>
       <c r="C128" s="20" t="s">
@@ -12546,21 +12537,21 @@
       <c r="E128" s="67" t="s">
         <v>817</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="0" t="s">
         <v>819</v>
       </c>
       <c r="L128" s="20">
         <v>13908033153</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129">
       <c r="A129" s="19">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="0" t="s">
         <v>820</v>
       </c>
       <c r="C129" s="20" t="s">
@@ -12575,18 +12566,18 @@
       <c r="F129" s="67" t="s">
         <v>822</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="0" t="s">
         <v>823</v>
       </c>
       <c r="L129" s="20">
         <v>13882183189</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130">
       <c r="A130" s="19">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="0" t="s">
         <v>824</v>
       </c>
       <c r="C130" s="20" t="s">
@@ -12598,21 +12589,21 @@
       <c r="E130" s="67" t="s">
         <v>825</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="0" t="s">
         <v>827</v>
       </c>
       <c r="L130" s="20">
         <v>18681695840</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131">
       <c r="A131" s="19">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="0" t="s">
         <v>828</v>
       </c>
       <c r="C131" s="20" t="s">
@@ -12624,21 +12615,21 @@
       <c r="E131" s="67" t="s">
         <v>829</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="0" t="s">
         <v>831</v>
       </c>
       <c r="L131" s="20">
         <v>13684011028</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132">
       <c r="A132" s="19">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="0" t="s">
         <v>832</v>
       </c>
       <c r="C132" s="20" t="s">
@@ -12650,21 +12641,21 @@
       <c r="E132" s="67" t="s">
         <v>833</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="0" t="s">
         <v>835</v>
       </c>
       <c r="L132" s="20">
         <v>13980967180</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133">
       <c r="A133" s="19">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="0" t="s">
         <v>736</v>
       </c>
       <c r="C133" s="20" t="s">
@@ -12673,24 +12664,24 @@
       <c r="D133" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="0" t="s">
         <v>838</v>
       </c>
       <c r="L133" s="20">
         <v>15908180960</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134">
       <c r="A134" s="19">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="0" t="s">
         <v>839</v>
       </c>
       <c r="C134" s="20" t="s">
@@ -12702,21 +12693,21 @@
       <c r="E134" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="0" t="s">
         <v>842</v>
       </c>
       <c r="L134" s="20">
         <v>18618193010</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135">
       <c r="A135" s="19">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="0" t="s">
         <v>843</v>
       </c>
       <c r="C135" s="26" t="s">
@@ -12725,13 +12716,13 @@
       <c r="D135" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="0" t="s">
         <v>845</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="0" t="s">
         <v>842</v>
       </c>
       <c r="K135" s="68" t="s">
@@ -12741,11 +12732,11 @@
         <v>13908013979</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136">
       <c r="A136" s="19">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="0" t="s">
         <v>847</v>
       </c>
       <c r="C136" s="20" t="s">
@@ -12754,21 +12745,21 @@
       <c r="D136" s="67" t="s">
         <v>848</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="0" t="s">
         <v>849</v>
       </c>
       <c r="F136" s="67" t="s">
         <v>848</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="0" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137">
       <c r="A137" s="19">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="0" t="s">
         <v>851</v>
       </c>
       <c r="C137" s="20" t="s">
@@ -12783,18 +12774,18 @@
       <c r="F137" s="67" t="s">
         <v>853</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="0" t="s">
         <v>854</v>
       </c>
       <c r="L137" s="20">
         <v>15883506572</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138">
       <c r="A138" s="19">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="0" t="s">
         <v>855</v>
       </c>
       <c r="C138" s="26" t="s">
@@ -12810,11 +12801,11 @@
         <v>18349139474</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139">
       <c r="A139" s="19">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="0" t="s">
         <v>857</v>
       </c>
       <c r="C139" s="26" t="s">
@@ -12827,11 +12818,11 @@
         <v>858</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140">
       <c r="A140" s="19">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="0" t="s">
         <v>859</v>
       </c>
       <c r="C140" s="26" t="s">
@@ -12844,11 +12835,11 @@
         <v>860</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141">
       <c r="A141" s="19">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="0" t="s">
         <v>861</v>
       </c>
       <c r="C141" s="26" t="s">
@@ -12860,18 +12851,18 @@
       <c r="F141" s="67" t="s">
         <v>863</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="0" t="s">
         <v>864</v>
       </c>
       <c r="K141" s="68" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142">
       <c r="A142" s="19">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="0" t="s">
         <v>865</v>
       </c>
       <c r="C142" s="26" t="s">
@@ -12883,18 +12874,18 @@
       <c r="F142" s="67" t="s">
         <v>867</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="0" t="s">
         <v>868</v>
       </c>
       <c r="K142" s="68" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143">
       <c r="A143" s="19">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="0" t="s">
         <v>869</v>
       </c>
       <c r="C143" s="26" t="s">
@@ -12906,7 +12897,7 @@
       <c r="F143" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="0" t="s">
         <v>872</v>
       </c>
       <c r="K143" s="68" t="s">
@@ -12916,11 +12907,11 @@
         <v>13880985377</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144">
       <c r="A144" s="19">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="0" t="s">
         <v>873</v>
       </c>
       <c r="C144" s="26" t="s">
@@ -12932,7 +12923,7 @@
       <c r="F144" s="67" t="s">
         <v>875</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="0" t="s">
         <v>876</v>
       </c>
       <c r="K144" s="68" t="s">
@@ -12942,11 +12933,11 @@
         <v>19829705092</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145">
       <c r="A145" s="19">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="0" t="s">
         <v>877</v>
       </c>
       <c r="C145" s="26" t="s">
@@ -12958,18 +12949,18 @@
       <c r="F145" s="67" t="s">
         <v>879</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="0" t="s">
         <v>880</v>
       </c>
       <c r="K145" s="68" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146">
       <c r="A146" s="19">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="0" t="s">
         <v>881</v>
       </c>
       <c r="C146" s="26" t="s">
@@ -12981,18 +12972,18 @@
       <c r="F146" s="67" t="s">
         <v>883</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="0" t="s">
         <v>884</v>
       </c>
       <c r="K146" s="68" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147">
       <c r="A147" s="19">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="0" t="s">
         <v>885</v>
       </c>
       <c r="C147" s="26" t="s">
@@ -13004,7 +12995,7 @@
       <c r="F147" s="67" t="s">
         <v>887</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="0" t="s">
         <v>888</v>
       </c>
       <c r="K147" s="68" t="s">
@@ -13014,11 +13005,11 @@
         <v>13881103012</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148">
       <c r="A148" s="19">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="0" t="s">
         <v>889</v>
       </c>
       <c r="C148" s="26" t="s">
@@ -13037,11 +13028,11 @@
         <v>13281117026</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149">
       <c r="A149" s="19">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="0" t="s">
         <v>892</v>
       </c>
       <c r="C149" s="20" t="s">
@@ -13056,15 +13047,15 @@
       <c r="F149" s="67" t="s">
         <v>894</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="0" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150">
       <c r="A150" s="19">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="0" t="s">
         <v>896</v>
       </c>
       <c r="C150" s="26" t="s">
@@ -13077,11 +13068,11 @@
         <v>897</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151">
       <c r="A151" s="19">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="0" t="s">
         <v>898</v>
       </c>
       <c r="C151" s="20" t="s">
@@ -13093,15 +13084,15 @@
       <c r="F151" s="67" t="s">
         <v>899</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="0" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152">
       <c r="A152" s="19">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="0" t="s">
         <v>901</v>
       </c>
       <c r="C152" s="26" t="s">
@@ -13117,7 +13108,7 @@
         <v>6240022</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="28">
+    <row r="153" ht="28">
       <c r="A153" s="19">
         <v>152</v>
       </c>
@@ -13128,7 +13119,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154">
       <c r="A154" s="19">
         <v>153</v>
       </c>
@@ -13144,18 +13135,18 @@
       <c r="F154" s="67" t="s">
         <v>906</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="0" t="s">
         <v>484</v>
       </c>
       <c r="K154" s="68" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155">
       <c r="A155" s="19">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="0" t="s">
         <v>907</v>
       </c>
       <c r="C155" s="20" t="s">
@@ -13164,24 +13155,24 @@
       <c r="D155" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="0" t="s">
         <v>908</v>
       </c>
       <c r="F155" s="67" t="s">
         <v>909</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="0" t="s">
         <v>910</v>
       </c>
       <c r="K155" s="20">
         <v>18382957777</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156">
       <c r="A156" s="19">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="0" t="s">
         <v>911</v>
       </c>
       <c r="C156" s="20" t="s">
@@ -13196,18 +13187,18 @@
       <c r="F156" s="67" t="s">
         <v>913</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="0" t="s">
         <v>914</v>
       </c>
       <c r="K156" s="20">
         <v>17381890296</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157">
       <c r="A157" s="19">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="0" t="s">
         <v>915</v>
       </c>
       <c r="C157" s="20" t="s">
@@ -13222,7 +13213,7 @@
       <c r="F157" s="67" t="s">
         <v>917</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="0" t="s">
         <v>918</v>
       </c>
       <c r="K157" s="20">
@@ -13232,11 +13223,11 @@
         <v>901</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158">
       <c r="A158" s="19">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="0" t="s">
         <v>919</v>
       </c>
       <c r="C158" s="20" t="s">
@@ -13245,21 +13236,21 @@
       <c r="D158" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="0" t="s">
         <v>920</v>
       </c>
       <c r="F158" s="67" t="s">
         <v>921</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="0" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159">
       <c r="A159" s="19">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="0" t="s">
         <v>923</v>
       </c>
       <c r="C159" s="20" t="s">
@@ -13274,18 +13265,18 @@
       <c r="F159" s="67" t="s">
         <v>925</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="0" t="s">
         <v>926</v>
       </c>
       <c r="K159" s="20">
         <v>18349260951</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160">
       <c r="A160" s="19">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="0" t="s">
         <v>927</v>
       </c>
       <c r="C160" s="20" t="s">
@@ -13294,24 +13285,24 @@
       <c r="D160" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="0" t="s">
         <v>928</v>
       </c>
       <c r="F160" s="67" t="s">
         <v>929</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="0" t="s">
         <v>926</v>
       </c>
       <c r="K160" s="20">
         <v>13688479908</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161">
       <c r="A161" s="19">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="0" t="s">
         <v>930</v>
       </c>
       <c r="C161" s="20" t="s">
@@ -13326,21 +13317,21 @@
       <c r="F161" s="67" t="s">
         <v>932</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="0" t="s">
         <v>926</v>
       </c>
       <c r="K161" s="20">
         <v>18030512239</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162">
       <c r="A162" s="19">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="0" t="s">
         <v>934</v>
       </c>
       <c r="C162" s="20" t="s">
@@ -13355,15 +13346,15 @@
       <c r="F162" s="67" t="s">
         <v>936</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="0" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163">
       <c r="A163" s="19">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="0" t="s">
         <v>938</v>
       </c>
       <c r="C163" s="20" t="s">
@@ -13375,15 +13366,15 @@
       <c r="F163" s="67" t="s">
         <v>939</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="0" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164">
       <c r="A164" s="19">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="0" t="s">
         <v>940</v>
       </c>
       <c r="C164" s="20" t="s">
@@ -13396,11 +13387,11 @@
         <v>941</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165">
       <c r="A165" s="19">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="0" t="s">
         <v>942</v>
       </c>
       <c r="C165" s="20" t="s">
@@ -13415,18 +13406,18 @@
       <c r="F165" s="67" t="s">
         <v>944</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="0" t="s">
         <v>945</v>
       </c>
       <c r="L165" s="20">
         <v>13548110233</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166">
       <c r="A166" s="19">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="0" t="s">
         <v>946</v>
       </c>
       <c r="C166" s="20" t="s">
@@ -13439,11 +13430,11 @@
         <v>947</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167">
       <c r="A167" s="19">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="0" t="s">
         <v>948</v>
       </c>
       <c r="C167" s="20" t="s">
@@ -13456,11 +13447,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168">
       <c r="A168" s="19">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="0" t="s">
         <v>950</v>
       </c>
       <c r="C168" s="20" t="s">
@@ -13473,11 +13464,11 @@
         <v>951</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169">
       <c r="A169" s="19">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="0" t="s">
         <v>952</v>
       </c>
       <c r="C169" s="20" t="s">
@@ -13490,11 +13481,11 @@
         <v>953</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170">
       <c r="A170" s="19">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="0" t="s">
         <v>954</v>
       </c>
       <c r="C170" s="20" t="s">
@@ -13509,18 +13500,18 @@
       <c r="F170" s="67" t="s">
         <v>956</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="0" t="s">
         <v>595</v>
       </c>
       <c r="L170" s="20">
         <v>13881939276</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171">
       <c r="A171" s="19">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="0" t="s">
         <v>957</v>
       </c>
       <c r="C171" s="20" t="s">
@@ -13529,24 +13520,24 @@
       <c r="D171" s="20" t="s">
         <v>958</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="0" t="s">
         <v>958</v>
       </c>
       <c r="F171" s="67" t="s">
         <v>959</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="0" t="s">
         <v>926</v>
       </c>
       <c r="L171" s="20">
         <v>13980555007</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172">
       <c r="A172" s="19">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="0" t="s">
         <v>960</v>
       </c>
       <c r="C172" s="20" t="s">
@@ -13561,18 +13552,18 @@
       <c r="F172" s="67" t="s">
         <v>962</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="0" t="s">
         <v>963</v>
       </c>
       <c r="L172" s="20">
         <v>13808186159</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173">
       <c r="A173" s="19">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="0" t="s">
         <v>964</v>
       </c>
       <c r="C173" s="20" t="s">
@@ -13587,21 +13578,21 @@
       <c r="F173" s="67" t="s">
         <v>966</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="0" t="s">
         <v>967</v>
       </c>
       <c r="L173" s="20">
         <v>13438192391</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" s="0" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174">
       <c r="A174" s="19">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="0" t="s">
         <v>969</v>
       </c>
       <c r="C174" s="20" t="s">
@@ -13616,18 +13607,18 @@
       <c r="F174" s="67" t="s">
         <v>971</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="0" t="s">
         <v>972</v>
       </c>
       <c r="L174" s="20">
         <v>13540600883</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175">
       <c r="A175" s="19">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="0" t="s">
         <v>973</v>
       </c>
       <c r="C175" s="20" t="s">
@@ -13642,18 +13633,18 @@
       <c r="F175" s="67" t="s">
         <v>975</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="0" t="s">
         <v>926</v>
       </c>
       <c r="L175" s="20">
         <v>13881986933</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176">
       <c r="A176" s="19">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="0" t="s">
         <v>976</v>
       </c>
       <c r="C176" s="20" t="s">
@@ -13668,15 +13659,15 @@
       <c r="F176" s="67" t="s">
         <v>977</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="0" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177">
       <c r="A177" s="19">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="0" t="s">
         <v>979</v>
       </c>
       <c r="C177" s="20" t="s">
@@ -13685,13 +13676,13 @@
       <c r="D177" s="68" t="s">
         <v>980</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="0">
         <v>0</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="0">
         <v>0</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="0">
         <v>0</v>
       </c>
       <c r="K177" s="68" t="s">
@@ -13701,11 +13692,11 @@
         <v>18088744160</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178">
       <c r="A178" s="19">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="0" t="s">
         <v>981</v>
       </c>
       <c r="C178" s="20" t="s">
@@ -13720,18 +13711,18 @@
       <c r="F178" s="67" t="s">
         <v>983</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="0" t="s">
         <v>984</v>
       </c>
       <c r="L178" s="20">
         <v>17381897976</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179">
       <c r="A179" s="19">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="0" t="s">
         <v>985</v>
       </c>
       <c r="C179" s="20" t="s">
@@ -13746,18 +13737,18 @@
       <c r="F179" s="67" t="s">
         <v>987</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="0" t="s">
         <v>988</v>
       </c>
       <c r="L179" s="20">
         <v>18511881577</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180">
       <c r="A180" s="19">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="0" t="s">
         <v>989</v>
       </c>
       <c r="C180" s="20" t="s">
@@ -13772,18 +13763,18 @@
       <c r="F180" s="67" t="s">
         <v>991</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="0" t="s">
         <v>992</v>
       </c>
       <c r="L180" s="20">
         <v>13709485953</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181">
       <c r="A181" s="19">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="0" t="s">
         <v>993</v>
       </c>
       <c r="C181" s="20" t="s">
@@ -13798,18 +13789,18 @@
       <c r="F181" s="67" t="s">
         <v>995</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="0" t="s">
         <v>996</v>
       </c>
       <c r="L181" s="20">
         <v>13720184932</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182">
       <c r="A182" s="19">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="0" t="s">
         <v>997</v>
       </c>
       <c r="C182" s="20" t="s">
@@ -13818,21 +13809,21 @@
       <c r="D182" s="67" t="s">
         <v>998</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="0" t="s">
         <v>999</v>
       </c>
       <c r="F182" s="67" t="s">
         <v>998</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="0" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183">
       <c r="A183" s="19">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="0" t="s">
         <v>1001</v>
       </c>
       <c r="C183" s="20" t="s">
@@ -13847,7 +13838,7 @@
       <c r="F183" s="67" t="s">
         <v>1003</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="0" t="s">
         <v>835</v>
       </c>
       <c r="H183" s="68" t="s">
@@ -13857,11 +13848,11 @@
         <v>13072883388</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184">
       <c r="A184" s="19">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="0" t="s">
         <v>1005</v>
       </c>
       <c r="C184" s="20" t="s">
@@ -13876,7 +13867,7 @@
       <c r="F184" s="67" t="s">
         <v>1007</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="0" t="s">
         <v>1008</v>
       </c>
       <c r="H184" s="68" t="s">
@@ -13886,11 +13877,11 @@
         <v>13880384547</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185">
       <c r="A185" s="19">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="0" t="s">
         <v>1010</v>
       </c>
       <c r="C185" s="20" t="s">
@@ -13905,7 +13896,7 @@
       <c r="F185" s="67" t="s">
         <v>1012</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="0" t="s">
         <v>1013</v>
       </c>
       <c r="H185" s="33" t="s">
@@ -13915,11 +13906,11 @@
         <v>13551109316</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186">
       <c r="A186" s="19">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="0" t="s">
         <v>1015</v>
       </c>
       <c r="C186" s="20" t="s">
@@ -13934,7 +13925,7 @@
       <c r="F186" s="67" t="s">
         <v>1017</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="0" t="s">
         <v>1018</v>
       </c>
       <c r="H186" s="68" t="s">
@@ -13944,11 +13935,11 @@
         <v>18982291559</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187">
       <c r="A187" s="19">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="0" t="s">
         <v>1020</v>
       </c>
       <c r="C187" s="20" t="s">
@@ -13963,7 +13954,7 @@
       <c r="F187" s="67" t="s">
         <v>1022</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="0" t="s">
         <v>1023</v>
       </c>
       <c r="H187" s="68" t="s">
@@ -13973,11 +13964,11 @@
         <v>13881834239</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188">
       <c r="A188" s="19">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="0" t="s">
         <v>1025</v>
       </c>
       <c r="C188" s="20" t="s">
@@ -13990,11 +13981,11 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189">
       <c r="A189" s="19">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="0" t="s">
         <v>1028</v>
       </c>
       <c r="C189" s="20" t="s">
@@ -14007,11 +13998,11 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190">
       <c r="A190" s="19">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="0" t="s">
         <v>1030</v>
       </c>
       <c r="C190" s="20" t="s">
@@ -14026,21 +14017,21 @@
       <c r="F190" s="67" t="s">
         <v>1032</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="0" t="s">
         <v>1033</v>
       </c>
       <c r="L190" s="20">
         <v>18911990856</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191">
       <c r="A191" s="19">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="0" t="s">
         <v>1034</v>
       </c>
       <c r="C191" s="20" t="s">
@@ -14055,21 +14046,21 @@
       <c r="F191" s="67" t="s">
         <v>1036</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="0" t="s">
         <v>1037</v>
       </c>
       <c r="L191" s="20">
         <v>18911990414</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192">
       <c r="A192" s="19">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="0" t="s">
         <v>1038</v>
       </c>
       <c r="C192" s="20" t="s">
@@ -14084,21 +14075,21 @@
       <c r="F192" s="67" t="s">
         <v>1040</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="0" t="s">
         <v>1037</v>
       </c>
       <c r="L192" s="20">
         <v>18911990473</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="0" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193">
       <c r="A193" s="19">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="0" t="s">
         <v>1041</v>
       </c>
       <c r="C193" s="20" t="s">
@@ -14113,21 +14104,21 @@
       <c r="F193" s="67" t="s">
         <v>1043</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="0" t="s">
         <v>1044</v>
       </c>
       <c r="L193" s="20">
         <v>18911990641</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194">
       <c r="A194" s="19">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="0" t="s">
         <v>1045</v>
       </c>
       <c r="C194" s="20" t="s">
@@ -14136,27 +14127,27 @@
       <c r="D194" s="20" t="s">
         <v>1046</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="0" t="s">
         <v>1046</v>
       </c>
       <c r="F194" s="67" t="s">
         <v>1047</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="0" t="s">
         <v>1048</v>
       </c>
       <c r="L194" s="20">
         <v>18911990655</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195">
       <c r="A195" s="19">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="0" t="s">
         <v>1049</v>
       </c>
       <c r="C195" s="20" t="s">
@@ -14171,21 +14162,21 @@
       <c r="F195" s="67" t="s">
         <v>1051</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="0" t="s">
         <v>1052</v>
       </c>
       <c r="L195" s="20">
         <v>18911990605</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196">
       <c r="A196" s="19">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="0" t="s">
         <v>1053</v>
       </c>
       <c r="C196" s="20" t="s">
@@ -14200,21 +14191,21 @@
       <c r="F196" s="67" t="s">
         <v>1055</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="0" t="s">
         <v>1056</v>
       </c>
       <c r="L196" s="20">
         <v>18911990484</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197">
       <c r="A197" s="19">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="0" t="s">
         <v>1057</v>
       </c>
       <c r="C197" s="20" t="s">
@@ -14229,21 +14220,21 @@
       <c r="F197" s="67" t="s">
         <v>1059</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="0" t="s">
         <v>1060</v>
       </c>
       <c r="L197" s="20">
         <v>18110078468</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" s="0" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198">
       <c r="A198" s="19">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="0" t="s">
         <v>1062</v>
       </c>
       <c r="C198" s="20" t="s">
@@ -14252,27 +14243,27 @@
       <c r="D198" s="20" t="s">
         <v>1063</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="0" t="s">
         <v>1063</v>
       </c>
       <c r="F198" s="67" t="s">
         <v>1064</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="0" t="s">
         <v>1065</v>
       </c>
       <c r="L198" s="20">
         <v>18110071878</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" s="0" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199">
       <c r="A199" s="19">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="0" t="s">
         <v>1066</v>
       </c>
       <c r="C199" s="20" t="s">
@@ -14281,27 +14272,27 @@
       <c r="D199" s="20" t="s">
         <v>1067</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="0" t="s">
         <v>1067</v>
       </c>
       <c r="F199" s="67" t="s">
         <v>1068</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="0" t="s">
         <v>1069</v>
       </c>
       <c r="L199" s="20">
         <v>18110070838</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200">
       <c r="A200" s="19">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="C200" s="20" t="s">
@@ -14316,7 +14307,7 @@
       <c r="F200" s="67" t="s">
         <v>1073</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="0" t="s">
         <v>1074</v>
       </c>
       <c r="K200" s="68" t="s">
@@ -14326,11 +14317,11 @@
         <v>18575780914</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201">
       <c r="A201" s="19">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="0" t="s">
         <v>1075</v>
       </c>
       <c r="C201" s="20" t="s">
@@ -14349,11 +14340,11 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202">
       <c r="A202" s="19">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="0" t="s">
         <v>1079</v>
       </c>
       <c r="C202" s="20" t="s">
@@ -14368,7 +14359,7 @@
       <c r="F202" s="67" t="s">
         <v>1081</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="L202" s="20">
@@ -14378,11 +14369,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203">
       <c r="A203" s="19">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="0" t="s">
         <v>1083</v>
       </c>
       <c r="C203" s="20" t="s">
@@ -14397,7 +14388,7 @@
       <c r="F203" s="67" t="s">
         <v>1085</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="L203" s="20">
@@ -14407,11 +14398,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204">
       <c r="A204" s="19">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="C204" s="26" t="s">
@@ -14426,7 +14417,7 @@
       <c r="F204" s="67" t="s">
         <v>1088</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="0" t="s">
         <v>1089</v>
       </c>
       <c r="K204" s="20">
@@ -14439,11 +14430,11 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205">
       <c r="A205" s="19">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="C205" s="26" t="s">
@@ -14465,11 +14456,11 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206">
       <c r="A206" s="19">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="0" t="s">
         <v>1094</v>
       </c>
       <c r="C206" s="26" t="s">
@@ -14491,11 +14482,11 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207">
       <c r="A207" s="19">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="0" t="s">
         <v>1096</v>
       </c>
       <c r="C207" s="20" t="s">
@@ -14504,15 +14495,15 @@
       <c r="D207" s="20" t="s">
         <v>1097</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="0" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208">
       <c r="A208" s="19">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="0" t="s">
         <v>1098</v>
       </c>
       <c r="C208" s="20" t="s">
@@ -14527,7 +14518,7 @@
       <c r="F208" s="67" t="s">
         <v>1100</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="0" t="s">
         <v>1101</v>
       </c>
       <c r="L208" s="20">
@@ -14537,11 +14528,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209">
       <c r="A209" s="19">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="0" t="s">
         <v>1102</v>
       </c>
       <c r="C209" s="20" t="s">
@@ -14556,7 +14547,7 @@
       <c r="F209" s="67" t="s">
         <v>1104</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="0" t="s">
         <v>1105</v>
       </c>
       <c r="L209" s="20">
@@ -14566,11 +14557,11 @@
         <v>933</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210">
       <c r="A210" s="19">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="0" t="s">
         <v>1106</v>
       </c>
       <c r="C210" s="20" t="s">
@@ -14585,18 +14576,18 @@
       <c r="F210" s="67" t="s">
         <v>1108</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="0" t="s">
         <v>1109</v>
       </c>
       <c r="M210" s="20" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211">
       <c r="A211" s="19">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="0" t="s">
         <v>1110</v>
       </c>
       <c r="C211" s="20" t="s">
@@ -14611,15 +14602,15 @@
       <c r="F211" s="67" t="s">
         <v>1112</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="0" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212">
       <c r="A212" s="19">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="0" t="s">
         <v>1114</v>
       </c>
       <c r="C212" s="20" t="s">
@@ -14628,21 +14619,21 @@
       <c r="D212" s="20" t="s">
         <v>1115</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="0" t="s">
         <v>1115</v>
       </c>
       <c r="F212" s="67" t="s">
         <v>1116</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="0" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213">
       <c r="A213" s="19">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="0" t="s">
         <v>1118</v>
       </c>
       <c r="C213" s="20" t="s">
@@ -14655,11 +14646,11 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214">
       <c r="A214" s="19">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="0" t="s">
         <v>1120</v>
       </c>
       <c r="C214" s="20" t="s">
@@ -14672,11 +14663,11 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215">
       <c r="A215" s="19">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="0" t="s">
         <v>1122</v>
       </c>
       <c r="C215" s="20" t="s">
@@ -14691,18 +14682,18 @@
       <c r="F215" s="67" t="s">
         <v>1124</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="0" t="s">
         <v>1125</v>
       </c>
       <c r="L215" s="20">
         <v>13350060662</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216">
       <c r="A216" s="19">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="0" t="s">
         <v>1126</v>
       </c>
       <c r="C216" s="20" t="s">
@@ -14715,11 +14706,11 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217">
       <c r="A217" s="19">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="0" t="s">
         <v>1128</v>
       </c>
       <c r="C217" s="20" t="s">
@@ -14734,18 +14725,18 @@
       <c r="F217" s="67" t="s">
         <v>1130</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="0" t="s">
         <v>1131</v>
       </c>
       <c r="L217" s="20">
         <v>15507702646</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218">
       <c r="A218" s="19">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="0" t="s">
         <v>1132</v>
       </c>
       <c r="C218" s="20" t="s">
@@ -14760,18 +14751,18 @@
       <c r="F218" s="67" t="s">
         <v>1134</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="0" t="s">
         <v>1135</v>
       </c>
       <c r="L218" s="20">
         <v>15184444781</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219">
       <c r="A219" s="19">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="0" t="s">
         <v>1136</v>
       </c>
       <c r="C219" s="20" t="s">
@@ -14786,18 +14777,18 @@
       <c r="F219" s="67" t="s">
         <v>1138</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="0" t="s">
         <v>1139</v>
       </c>
       <c r="L219" s="20">
         <v>13880012488</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220">
       <c r="A220" s="19">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="0" t="s">
         <v>1140</v>
       </c>
       <c r="C220" s="20" t="s">
@@ -14812,21 +14803,21 @@
       <c r="F220" s="67" t="s">
         <v>1142</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="0" t="s">
         <v>1143</v>
       </c>
       <c r="L220" s="20">
         <v>13258218888</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221">
       <c r="A221" s="19">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="C221" s="20" t="s">
@@ -14841,21 +14832,21 @@
       <c r="F221" s="67" t="s">
         <v>1146</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="0" t="s">
         <v>1147</v>
       </c>
       <c r="L221" s="20">
         <v>13981819638</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222">
       <c r="A222" s="19">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="0" t="s">
         <v>1148</v>
       </c>
       <c r="C222" s="20" t="s">
@@ -14870,21 +14861,21 @@
       <c r="F222" s="67" t="s">
         <v>1150</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="0" t="s">
         <v>498</v>
       </c>
       <c r="L222" s="20">
         <v>18683618560</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223">
       <c r="A223" s="19">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="0" t="s">
         <v>1151</v>
       </c>
       <c r="C223" s="20" t="s">
@@ -14899,21 +14890,21 @@
       <c r="F223" s="67" t="s">
         <v>1153</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="0" t="s">
         <v>1154</v>
       </c>
       <c r="L223" s="20">
         <v>13880417337</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223" s="0" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224">
       <c r="A224" s="19">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="0" t="s">
         <v>1156</v>
       </c>
       <c r="C224" s="20" t="s">
@@ -14928,21 +14919,21 @@
       <c r="F224" s="67" t="s">
         <v>1158</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="0" t="s">
         <v>1159</v>
       </c>
       <c r="L224" s="20">
         <v>13982254477</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224" s="0" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225">
       <c r="A225" s="19">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="0" t="s">
         <v>1160</v>
       </c>
       <c r="C225" s="20" t="s">
@@ -14958,11 +14949,11 @@
         <v>17835601430</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226">
       <c r="A226" s="19">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="C226" s="20" t="s">
@@ -14971,24 +14962,24 @@
       <c r="D226" s="20" t="s">
         <v>1163</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="0" t="s">
         <v>1163</v>
       </c>
       <c r="F226" s="67" t="s">
         <v>1164</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="0" t="s">
         <v>1165</v>
       </c>
       <c r="L226" s="20">
         <v>18375939215</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227">
       <c r="A227" s="19">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="0" t="s">
         <v>1166</v>
       </c>
       <c r="C227" s="20" t="s">
@@ -15000,7 +14991,7 @@
       <c r="F227" s="67" t="s">
         <v>1168</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="0" t="s">
         <v>601</v>
       </c>
       <c r="K227" s="68" t="s">
@@ -15010,11 +15001,11 @@
         <v>13518306314</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228">
       <c r="A228" s="19">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="0" t="s">
         <v>1169</v>
       </c>
       <c r="C228" s="20" t="s">
@@ -15027,11 +15018,11 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229">
       <c r="A229" s="19">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="0" t="s">
         <v>1171</v>
       </c>
       <c r="C229" s="20" t="s">
@@ -15040,27 +15031,27 @@
       <c r="D229" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="0" t="s">
         <v>1172</v>
       </c>
       <c r="F229" s="67" t="s">
         <v>1173</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="0" t="s">
         <v>967</v>
       </c>
       <c r="L229" s="20">
         <v>13882226385</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229" s="0" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230">
       <c r="A230" s="19">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="C230" s="20" t="s">
@@ -15075,21 +15066,21 @@
       <c r="F230" s="67" t="s">
         <v>1176</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="0" t="s">
         <v>1177</v>
       </c>
       <c r="L230" s="20">
         <v>13908061512</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230" s="0" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231">
       <c r="A231" s="19">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="0" t="s">
         <v>1178</v>
       </c>
       <c r="C231" s="20" t="s">
@@ -15098,27 +15089,27 @@
       <c r="D231" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="0" t="s">
         <v>1179</v>
       </c>
       <c r="F231" s="67" t="s">
         <v>1180</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="0" t="s">
         <v>1181</v>
       </c>
       <c r="L231" s="20">
         <v>13550226561</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232">
       <c r="A232" s="19">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="0" t="s">
         <v>1182</v>
       </c>
       <c r="C232" s="20" t="s">
@@ -15133,21 +15124,21 @@
       <c r="F232" s="67" t="s">
         <v>1184</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="0" t="s">
         <v>1185</v>
       </c>
       <c r="L232" s="20">
         <v>18010678960</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233">
       <c r="A233" s="19">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="0" t="s">
         <v>1186</v>
       </c>
       <c r="C233" s="20" t="s">
@@ -15162,21 +15153,21 @@
       <c r="F233" s="67" t="s">
         <v>1188</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="0" t="s">
         <v>1189</v>
       </c>
       <c r="L233" s="20">
         <v>13709020198</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233" s="0" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234">
       <c r="A234" s="19">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="0" t="s">
         <v>1190</v>
       </c>
       <c r="C234" s="20" t="s">
@@ -15185,24 +15176,24 @@
       <c r="D234" s="20" t="s">
         <v>1191</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="F234" s="67" t="s">
         <v>1192</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="0" t="s">
         <v>1193</v>
       </c>
       <c r="L234" s="20">
         <v>18033950999</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235">
       <c r="A235" s="19">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="0" t="s">
         <v>1194</v>
       </c>
       <c r="C235" s="20" t="s">
@@ -15217,7 +15208,7 @@
       <c r="F235" s="67" t="s">
         <v>1196</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K235" s="20">
@@ -15227,11 +15218,11 @@
         <v>13547285749</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236">
       <c r="A236" s="19">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="0" t="s">
         <v>1197</v>
       </c>
       <c r="C236" s="20" t="s">
@@ -15243,15 +15234,15 @@
       <c r="F236" s="67" t="s">
         <v>1198</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="0" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237">
       <c r="A237" s="19">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="0" t="s">
         <v>1200</v>
       </c>
       <c r="C237" s="20" t="s">
@@ -15266,18 +15257,18 @@
       <c r="F237" s="76" t="s">
         <v>1202</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="0" t="s">
         <v>1203</v>
       </c>
       <c r="L237" s="20">
         <v>15202871402</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238">
       <c r="A238" s="19">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="0" t="s">
         <v>1197</v>
       </c>
       <c r="C238" s="20" t="s">
@@ -15293,11 +15284,11 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239">
       <c r="A239" s="19">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="C239" s="20" t="s">
@@ -15309,7 +15300,7 @@
       <c r="F239" s="67" t="s">
         <v>1205</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K239" s="20">
@@ -15319,11 +15310,11 @@
         <v>15008489824</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240">
       <c r="A240" s="19">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="0" t="s">
         <v>1206</v>
       </c>
       <c r="C240" s="20" t="s">
@@ -15339,11 +15330,11 @@
         <v>13730885415</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241">
       <c r="A241" s="19">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="0" t="s">
         <v>1207</v>
       </c>
       <c r="C241" s="20" t="s">
@@ -15356,11 +15347,11 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242">
       <c r="A242" s="19">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="0" t="s">
         <v>1209</v>
       </c>
       <c r="C242" s="20" t="s">
@@ -15373,11 +15364,11 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243">
       <c r="A243" s="19">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="0" t="s">
         <v>1211</v>
       </c>
       <c r="C243" s="20" t="s">
@@ -15402,11 +15393,11 @@
         <v>13281811416</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="14.15" customHeight="1">
+    <row r="244" ht="14.15" customHeight="1">
       <c r="A244" s="19">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="0" t="s">
         <v>1216</v>
       </c>
       <c r="C244" s="20" t="s">
@@ -15421,18 +15412,18 @@
       <c r="F244" s="67" t="s">
         <v>1218</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="0" t="s">
         <v>1219</v>
       </c>
       <c r="L244" s="20">
         <v>13008141065</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245">
       <c r="A245" s="19">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="0" t="s">
         <v>1220</v>
       </c>
       <c r="C245" s="20" t="s">
@@ -15447,7 +15438,7 @@
       <c r="F245" s="76" t="s">
         <v>1224</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="0" t="s">
         <v>1225</v>
       </c>
       <c r="K245" s="68" t="s">
@@ -15457,11 +15448,11 @@
         <v>19828415638</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246">
       <c r="A246" s="19">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="0" t="s">
         <v>1226</v>
       </c>
       <c r="C246" s="20" t="s">
@@ -15474,11 +15465,11 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247">
       <c r="A247" s="19">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="0" t="s">
         <v>1228</v>
       </c>
       <c r="C247" s="20" t="s">
@@ -15491,11 +15482,11 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248">
       <c r="A248" s="19">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="0" t="s">
         <v>1230</v>
       </c>
       <c r="C248" s="20" t="s">
@@ -15504,21 +15495,21 @@
       <c r="D248" s="20" t="s">
         <v>1231</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="0" t="s">
         <v>1231</v>
       </c>
       <c r="F248" s="67" t="s">
         <v>1232</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="0" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249">
       <c r="A249" s="19">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="0" t="s">
         <v>1234</v>
       </c>
       <c r="C249" s="20" t="s">
@@ -15533,15 +15524,15 @@
       <c r="F249" s="67" t="s">
         <v>1236</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="0" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250">
       <c r="A250" s="19">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="0" t="s">
         <v>1238</v>
       </c>
       <c r="C250" s="20" t="s">
@@ -15556,7 +15547,7 @@
       <c r="F250" s="67" t="s">
         <v>1241</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="0" t="s">
         <v>1242</v>
       </c>
       <c r="K250" s="68" t="s">
@@ -15566,11 +15557,11 @@
         <v>13408470814</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251">
       <c r="A251" s="19">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="0" t="s">
         <v>1243</v>
       </c>
       <c r="C251" s="20" t="s">
@@ -15579,21 +15570,21 @@
       <c r="D251" s="45">
         <v>4240503</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K251" s="45">
         <v>4240503</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252">
       <c r="A252" s="19">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="0" t="s">
         <v>1245</v>
       </c>
       <c r="C252" s="20" t="s">
@@ -15605,21 +15596,21 @@
       <c r="E252" s="67" t="s">
         <v>1246</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K252" s="45">
         <v>4240504</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253">
       <c r="A253" s="19">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="0" t="s">
         <v>1248</v>
       </c>
       <c r="C253" s="20" t="s">
@@ -15634,18 +15625,18 @@
       <c r="F253" s="67" t="s">
         <v>1250</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="0" t="s">
         <v>1251</v>
       </c>
       <c r="L253" s="20">
         <v>13301372866</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254">
       <c r="A254" s="19">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="0" t="s">
         <v>1252</v>
       </c>
       <c r="C254" s="20" t="s">
@@ -15660,18 +15651,18 @@
       <c r="F254" s="67" t="s">
         <v>1254</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="0" t="s">
         <v>1255</v>
       </c>
       <c r="L254" s="20">
         <v>13898800176</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255">
       <c r="A255" s="19">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="0" t="s">
         <v>1256</v>
       </c>
       <c r="C255" s="20" t="s">
@@ -15686,18 +15677,18 @@
       <c r="F255" s="67" t="s">
         <v>1258</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="0" t="s">
         <v>1259</v>
       </c>
       <c r="L255" s="20">
         <v>18818272538</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256">
       <c r="A256" s="19">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="0" t="s">
         <v>1260</v>
       </c>
       <c r="C256" s="20" t="s">
@@ -15712,18 +15703,18 @@
       <c r="F256" s="67" t="s">
         <v>1262</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="0" t="s">
         <v>926</v>
       </c>
       <c r="L256" s="20">
         <v>18113135523</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257">
       <c r="A257" s="19">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="0" t="s">
         <v>1263</v>
       </c>
       <c r="C257" s="20" t="s">
@@ -15738,18 +15729,18 @@
       <c r="F257" s="67" t="s">
         <v>1265</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="0" t="s">
         <v>1255</v>
       </c>
       <c r="L257" s="20">
         <v>13940534749</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258">
       <c r="A258" s="19">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="0" t="s">
         <v>1266</v>
       </c>
       <c r="C258" s="20" t="s">
@@ -15765,11 +15756,11 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259">
       <c r="A259" s="19">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="0" t="s">
         <v>1269</v>
       </c>
       <c r="C259" s="20" t="s">
@@ -15785,11 +15776,11 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260">
       <c r="A260" s="19">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="0" t="s">
         <v>1272</v>
       </c>
       <c r="C260" s="20" t="s">
@@ -15805,11 +15796,11 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261">
       <c r="A261" s="19">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="0" t="s">
         <v>1275</v>
       </c>
       <c r="C261" s="20" t="s">
@@ -15825,11 +15816,11 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262">
       <c r="A262" s="19">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="0" t="s">
         <v>1278</v>
       </c>
       <c r="C262" s="20" t="s">
@@ -15845,11 +15836,11 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263">
       <c r="A263" s="19">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="0" t="s">
         <v>1281</v>
       </c>
       <c r="C263" s="20" t="s">
@@ -15862,11 +15853,11 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264">
       <c r="A264" s="19">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="0" t="s">
         <v>1283</v>
       </c>
       <c r="C264" s="20" t="s">
@@ -15881,18 +15872,18 @@
       <c r="F264" s="67" t="s">
         <v>1285</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="0" t="s">
         <v>1286</v>
       </c>
       <c r="L264" s="20">
         <v>13432240262</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265">
       <c r="A265" s="19">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="0" t="s">
         <v>1287</v>
       </c>
       <c r="C265" s="20" t="s">
@@ -15905,11 +15896,11 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266">
       <c r="A266" s="19">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="0" t="s">
         <v>1289</v>
       </c>
       <c r="C266" s="20" t="s">
@@ -15924,18 +15915,18 @@
       <c r="F266" s="67" t="s">
         <v>1291</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="0" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267">
       <c r="A267" s="19">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="0" t="s">
         <v>1294</v>
       </c>
       <c r="C267" s="20" t="s">
@@ -15944,21 +15935,21 @@
       <c r="D267" s="20" t="s">
         <v>1295</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="0" t="s">
         <v>1295</v>
       </c>
       <c r="F267" s="67" t="s">
         <v>1296</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="0" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268">
       <c r="A268" s="19">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="0" t="s">
         <v>1298</v>
       </c>
       <c r="C268" s="20" t="s">
@@ -15973,7 +15964,7 @@
       <c r="F268" s="67" t="s">
         <v>1300</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="0" t="s">
         <v>1301</v>
       </c>
       <c r="K268" s="20">
@@ -15983,11 +15974,11 @@
         <v>18227623393</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269">
       <c r="A269" s="19">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="0" t="s">
         <v>1302</v>
       </c>
       <c r="C269" s="20" t="s">
@@ -15996,13 +15987,13 @@
       <c r="D269" s="20">
         <v>4250136</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="0" t="s">
         <v>1303</v>
       </c>
       <c r="F269" s="67" t="s">
         <v>1304</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="0" t="s">
         <v>421</v>
       </c>
       <c r="K269" s="20">
@@ -16012,11 +16003,11 @@
         <v>18784992511</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270">
       <c r="A270" s="19">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="0" t="s">
         <v>1305</v>
       </c>
       <c r="C270" s="20" t="s">
@@ -16031,7 +16022,7 @@
       <c r="F270" s="67" t="s">
         <v>1307</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="0" t="s">
         <v>1308</v>
       </c>
       <c r="K270" s="20">
@@ -16041,11 +16032,11 @@
         <v>18882027754</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271">
       <c r="A271" s="19">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="0" t="s">
         <v>1309</v>
       </c>
       <c r="C271" s="20" t="s">
@@ -16058,11 +16049,11 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272">
       <c r="A272" s="19">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="0" t="s">
         <v>1311</v>
       </c>
       <c r="C272" s="20" t="s">
@@ -16075,11 +16066,11 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273">
       <c r="A273" s="19">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="0" t="s">
         <v>1313</v>
       </c>
       <c r="C273" s="20" t="s">
@@ -16088,24 +16079,24 @@
       <c r="D273" s="20" t="s">
         <v>1314</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="0" t="s">
         <v>1314</v>
       </c>
       <c r="F273" s="67" t="s">
         <v>1315</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="0" t="s">
         <v>1316</v>
       </c>
       <c r="L273" s="20" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274">
       <c r="A274" s="19">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="0" t="s">
         <v>1318</v>
       </c>
       <c r="D274" s="68" t="s">
@@ -16115,11 +16106,11 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275">
       <c r="A275" s="19">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="0" t="s">
         <v>1320</v>
       </c>
       <c r="C275" s="20" t="s">
@@ -16134,18 +16125,18 @@
       <c r="F275" s="67" t="s">
         <v>1322</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="0" t="s">
         <v>1323</v>
       </c>
       <c r="L275" s="44">
         <v>13869207670</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276">
       <c r="A276" s="19">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="0" t="s">
         <v>1324</v>
       </c>
       <c r="C276" s="20" t="s">
@@ -16154,21 +16145,21 @@
       <c r="D276" s="20" t="s">
         <v>1325</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="0" t="s">
         <v>1325</v>
       </c>
       <c r="F276" s="19">
         <v>153654564</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="0" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277">
       <c r="A277" s="19">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="0" t="s">
         <v>1327</v>
       </c>
       <c r="C277" s="20" t="s">
@@ -16183,18 +16174,18 @@
       <c r="F277" s="67" t="s">
         <v>1329</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="0" t="s">
         <v>1330</v>
       </c>
       <c r="L277" s="20">
         <v>15734900293</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278">
       <c r="A278" s="19">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="0" t="s">
         <v>1331</v>
       </c>
       <c r="C278" s="20" t="s">
@@ -16209,7 +16200,7 @@
       <c r="F278" s="67" t="s">
         <v>1334</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="0" t="s">
         <v>1335</v>
       </c>
       <c r="K278" s="68" t="s">
@@ -16219,11 +16210,11 @@
         <v>18980343526</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279">
       <c r="A279" s="19">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="0" t="s">
         <v>1336</v>
       </c>
       <c r="C279" s="20" t="s">
@@ -16235,21 +16226,21 @@
       <c r="E279" s="67" t="s">
         <v>1337</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="0" t="s">
         <v>1338</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="0" t="s">
         <v>1339</v>
       </c>
       <c r="L279" s="20">
         <v>18008210260</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280">
       <c r="A280" s="19">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="0" t="s">
         <v>1340</v>
       </c>
       <c r="C280" s="20" t="s">
@@ -16264,18 +16255,18 @@
       <c r="F280" s="67" t="s">
         <v>1342</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="0" t="s">
         <v>1343</v>
       </c>
       <c r="L280" s="20">
         <v>17763464579</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="14.15" customHeight="1">
+    <row r="281" ht="14.15" customHeight="1">
       <c r="A281" s="19">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="0" t="s">
         <v>1344</v>
       </c>
       <c r="C281" s="20" t="s">
@@ -16290,18 +16281,18 @@
       <c r="F281" s="67" t="s">
         <v>1346</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="0" t="s">
         <v>1347</v>
       </c>
       <c r="L281" s="20">
         <v>18080502583</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282">
       <c r="A282" s="19">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="0" t="s">
         <v>1348</v>
       </c>
       <c r="C282" s="20" t="s">
@@ -16310,7 +16301,7 @@
       <c r="D282" s="20" t="s">
         <v>1349</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="0" t="s">
         <v>1349</v>
       </c>
       <c r="F282" s="67" t="s">
@@ -16320,11 +16311,11 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283">
       <c r="A283" s="19">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="0" t="s">
         <v>1352</v>
       </c>
       <c r="C283" s="20" t="s">
@@ -16333,13 +16324,13 @@
       <c r="D283" s="20" t="s">
         <v>1353</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="0" t="s">
         <v>1353</v>
       </c>
       <c r="F283" s="67" t="s">
         <v>1354</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="0" t="s">
         <v>1355</v>
       </c>
       <c r="H283" s="68" t="s">
@@ -16349,11 +16340,11 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284">
       <c r="A284" s="19">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="0" t="s">
         <v>1358</v>
       </c>
       <c r="C284" s="20" t="s">
@@ -16362,21 +16353,21 @@
       <c r="D284" s="20" t="s">
         <v>1359</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="0" t="s">
         <v>1359</v>
       </c>
       <c r="F284" s="67" t="s">
         <v>1360</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="0" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285">
       <c r="A285" s="19">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="0" t="s">
         <v>1361</v>
       </c>
       <c r="C285" s="20" t="s">
@@ -16389,11 +16380,11 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286">
       <c r="A286" s="19">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="0" t="s">
         <v>1363</v>
       </c>
       <c r="C286" s="20" t="s">
@@ -16402,21 +16393,21 @@
       <c r="D286" s="20" t="s">
         <v>1364</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="0" t="s">
         <v>1364</v>
       </c>
       <c r="F286" s="67" t="s">
         <v>1365</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="0" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287">
       <c r="A287" s="19">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="0" t="s">
         <v>1366</v>
       </c>
       <c r="C287" s="20" t="s">
@@ -16425,21 +16416,21 @@
       <c r="D287" s="20" t="s">
         <v>1367</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="0" t="s">
         <v>1367</v>
       </c>
       <c r="F287" s="67" t="s">
         <v>1368</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="0" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288">
       <c r="A288" s="19">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="0" t="s">
         <v>1369</v>
       </c>
       <c r="C288" s="20" t="s">
@@ -16452,11 +16443,11 @@
         <v>3210049</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289">
       <c r="A289" s="19">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="0" t="s">
         <v>1370</v>
       </c>
       <c r="C289" s="20" t="s">
@@ -16471,21 +16462,21 @@
       <c r="F289" s="67" t="s">
         <v>1372</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="0" t="s">
         <v>926</v>
       </c>
       <c r="L289" s="20">
         <v>13689068809</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290">
       <c r="A290" s="19">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="0" t="s">
         <v>1373</v>
       </c>
       <c r="C290" s="20" t="s">
@@ -16500,21 +16491,21 @@
       <c r="F290" s="67" t="s">
         <v>1375</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="0" t="s">
         <v>1376</v>
       </c>
       <c r="L290" s="20">
         <v>13397191921</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290" s="0" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291">
       <c r="A291" s="19">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="0" t="s">
         <v>1378</v>
       </c>
       <c r="C291" s="20" t="s">
@@ -16529,7 +16520,7 @@
       <c r="F291" s="67" t="s">
         <v>1380</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="0" t="s">
         <v>1381</v>
       </c>
       <c r="H291" s="68" t="s">
@@ -16539,11 +16530,11 @@
         <v>15775883745</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292">
       <c r="A292" s="19">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="0" t="s">
         <v>1383</v>
       </c>
       <c r="C292" s="20" t="s">
@@ -16555,21 +16546,21 @@
       <c r="E292" s="67" t="s">
         <v>1384</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="0" t="s">
         <v>1385</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="0" t="s">
         <v>1386</v>
       </c>
       <c r="L292" s="20">
         <v>18030588167</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293">
       <c r="A293" s="19">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="0" t="s">
         <v>1387</v>
       </c>
       <c r="C293" s="20" t="s">
@@ -16584,14 +16575,14 @@
       <c r="F293" s="67" t="s">
         <v>1389</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="0" t="s">
         <v>1390</v>
       </c>
       <c r="H293" s="68" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.5">
+    <row r="294" ht="15.5">
       <c r="A294" s="19">
         <v>293</v>
       </c>
@@ -16602,13 +16593,13 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
@@ -16618,6 +16609,7 @@
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -16631,14 +16623,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="10" customWidth="1"/>
-    <col min="4" max="7" width="16" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.08203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.58203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1" style="9"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" style="10"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1" style="10"/>
+    <col min="4" max="7" width="16" customWidth="1" style="10"/>
+    <col min="8" max="8" width="21.08203125" customWidth="1" style="11"/>
+    <col min="9" max="9" width="19.58203125" customWidth="1" style="11"/>
+    <col min="10" max="10" width="21.25" customWidth="1" style="11"/>
+    <col min="11" max="11" width="20.5" customWidth="1" style="11"/>
     <col min="12" max="12" width="22.58203125" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="17.58203125" customWidth="1"/>
@@ -16646,7 +16638,7 @@
     <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="107">
+    <row r="1" ht="107" s="8" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>1393</v>
       </c>
@@ -16702,15 +16694,16 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2">
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3">
       <c r="B3" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -16718,13 +16711,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR7" sqref="AR7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="73.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="14.58203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
@@ -16744,10 +16738,11 @@
     <col min="38" max="39" width="9.33203125" customWidth="1"/>
     <col min="40" max="40" width="16" customWidth="1"/>
     <col min="41" max="41" width="14.33203125" customWidth="1"/>
-    <col min="42" max="42" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" bestFit="1" width="73.6640625" customWidth="1"/>
+    <col min="45" max="45" bestFit="1" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="42">
+    <row r="1" ht="42" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1411</v>
       </c>
@@ -16881,15 +16876,23 @@
         <v>1448</v>
       </c>
       <c r="AS1" s="79" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1453</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <v>1</v>
@@ -16898,34 +16901,34 @@
         <v>5070016</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="K2" s="3">
         <v>5</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="M2" s="3">
         <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="O2" s="3">
         <v>3</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="Q2" s="3">
         <v>5</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="S2" s="78" t="s">
         <v>321</v>
@@ -16934,80 +16937,79 @@
         <v>2</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="Y2" s="3">
         <v>10</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="AA2" s="3">
         <v>3600</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="AD2" s="3">
         <v>5070016</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="AF2" s="3">
         <v>3600</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="AM2" s="3">
         <v>5</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>1459</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1466</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>2</v>
@@ -17021,19 +17023,19 @@
         <v>6</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="O3" s="3">
         <v>3</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="Q3" s="3">
         <v>5</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="S3" s="78" t="s">
         <v>342</v>
@@ -17042,83 +17044,74 @@
         <v>5</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="Y3" s="3">
         <v>10</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="AA3" s="3">
         <v>560</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="AD3" s="78">
         <v>5110016</v>
       </c>
       <c r="AE3" s="78" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="AF3" s="3">
         <v>560</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="AM3" s="3">
         <v>5</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
@@ -17129,12 +17122,12 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H57" sqref="H57"/>
@@ -17144,12 +17137,12 @@
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H55" sqref="H55"/>
@@ -17159,12 +17152,12 @@
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
@@ -17174,6 +17167,7 @@
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>